--- a/data/hotels_by_city/Houston/Houston_shard_577.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_577.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="619">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d108057-Reviews-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Sonesta-ES-Suites-Houston-NASA-Clear-Lake.h22356.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,1756 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r599078452-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>108057</t>
+  </si>
+  <si>
+    <t>599078452</t>
+  </si>
+  <si>
+    <t>07/23/2018</t>
+  </si>
+  <si>
+    <t>Very Pleasant Enjoyable Stay</t>
+  </si>
+  <si>
+    <t>This was my first stay with this hotel chain. I was a little reluctant because of this; however I was pleasantly surprised. The hotel is under renovations and the rooms (3) that may family and I were given had all been renovated. The accommodation are very nice with fully furnishied just like a studio or larger apartment. We were able to cook breakfast and steak dinner in which we used the large gas grill on site. A nice place to stay. We enjoyed it immensely and have definitely become a fan of Sonesta.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Austin D, General Manager at Sonesta ES Suites Houston - NASA Clear Lake, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>This was my first stay with this hotel chain. I was a little reluctant because of this; however I was pleasantly surprised. The hotel is under renovations and the rooms (3) that may family and I were given had all been renovated. The accommodation are very nice with fully furnishied just like a studio or larger apartment. We were able to cook breakfast and steak dinner in which we used the large gas grill on site. A nice place to stay. We enjoyed it immensely and have definitely become a fan of Sonesta.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r597063855-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>597063855</t>
+  </si>
+  <si>
+    <t>07/17/2018</t>
+  </si>
+  <si>
+    <t>Great place great time</t>
+  </si>
+  <si>
+    <t>We stayed here with a youth base ball team. Boys had basketball an volley ball to entertain themselves. Room was  clean. They are remolding but there was no trash all over the property every thing well maintained. I had a issue with the lock on my door it was taken care of immediately. The breakfast was small but we knew that going in with the remolding. I would stay here again price was good location was just what we needed. Stayed 5 nights and all was great. Oh by the way we won the tournament.MoreShow less</t>
+  </si>
+  <si>
+    <t>Austin D, General Manager at Sonesta ES Suites Houston - NASA Clear Lake, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>We stayed here with a youth base ball team. Boys had basketball an volley ball to entertain themselves. Room was  clean. They are remolding but there was no trash all over the property every thing well maintained. I had a issue with the lock on my door it was taken care of immediately. The breakfast was small but we knew that going in with the remolding. I would stay here again price was good location was just what we needed. Stayed 5 nights and all was great. Oh by the way we won the tournament.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r593079202-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>593079202</t>
+  </si>
+  <si>
+    <t>07/04/2018</t>
+  </si>
+  <si>
+    <t>Confirmed Reservations Mean Nothing to Sonesta</t>
+  </si>
+  <si>
+    <t>We were scheduled to stay in a 2Br, 2 Ba suite for 9 nights, with a written, confirmed reservation for 22-30 June 2018, and we were counting on staying there. Upon arrival--and NOT before--we were advised that they could put us in a 1 BR suite and that was the best they could do. We will certainly never choose Sonesta again.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r571435412-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>571435412</t>
+  </si>
+  <si>
+    <t>04/06/2018</t>
+  </si>
+  <si>
+    <t>Very good location near Johnson Space Centre</t>
+  </si>
+  <si>
+    <t>The location was 15 minutes away from Johnson Space Centre and 30 minutes away from the airport, Minute Maid Park and Galveston. The suites were very roomy and had all the amenities you would need for an extended stay. Fridge/cooktop/microwave/cooking utensils/etc. The breakfast was very nice. Hot and cold choices. They also have a meet and greet evenings during the week featuring a different hot dish each night. Parking is free and The hotel associates were great. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Austin D, General Manager at Sonesta ES Suites Houston - NASA Clear Lake, responded to this reviewResponded April 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2018</t>
+  </si>
+  <si>
+    <t>The location was 15 minutes away from Johnson Space Centre and 30 minutes away from the airport, Minute Maid Park and Galveston. The suites were very roomy and had all the amenities you would need for an extended stay. Fridge/cooktop/microwave/cooking utensils/etc. The breakfast was very nice. Hot and cold choices. They also have a meet and greet evenings during the week featuring a different hot dish each night. Parking is free and The hotel associates were great. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r566757956-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>566757956</t>
+  </si>
+  <si>
+    <t>03/15/2018</t>
+  </si>
+  <si>
+    <t>Blindsided!!!</t>
+  </si>
+  <si>
+    <t>My 12-year old son and I were traveling for Spring Break and we stumbled upon this hotel! We were blindsided but pleasantly surprised when we arrived! The amenities and staff were more than I expectedMoreShow less</t>
+  </si>
+  <si>
+    <t>My 12-year old son and I were traveling for Spring Break and we stumbled upon this hotel! We were blindsided but pleasantly surprised when we arrived! The amenities and staff were more than I expectedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r566566986-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>566566986</t>
+  </si>
+  <si>
+    <t>03/14/2018</t>
+  </si>
+  <si>
+    <t>Excellent Service and Stay</t>
+  </si>
+  <si>
+    <t>Highly recommend. Friendly service and clean and comfortable room. They were able to accommodate us the last minute when another hotel cancelled on us. Friendly and speedy check in and check out process. MoreShow less</t>
+  </si>
+  <si>
+    <t>Highly recommend. Friendly service and clean and comfortable room. They were able to accommodate us the last minute when another hotel cancelled on us. Friendly and speedy check in and check out process. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r550323841-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>550323841</t>
+  </si>
+  <si>
+    <t>12/30/2017</t>
+  </si>
+  <si>
+    <t>Overnight stay</t>
+  </si>
+  <si>
+    <t>Very nice, inside and out. Here for an overnight before going on to Galveston for cruise. 1st time to stay here.  Clean and comfortable and very spacious! Full kitchen, sofa , chair, desk and king bed. Great choice!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Austin D, General Manager at Sonesta ES Suites Houston - NASA Clear Lake, responded to this reviewResponded January 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2018</t>
+  </si>
+  <si>
+    <t>Very nice, inside and out. Here for an overnight before going on to Galveston for cruise. 1st time to stay here.  Clean and comfortable and very spacious! Full kitchen, sofa , chair, desk and king bed. Great choice!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r546008439-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>546008439</t>
+  </si>
+  <si>
+    <t>12/08/2017</t>
+  </si>
+  <si>
+    <t>Lovely Stay!!</t>
+  </si>
+  <si>
+    <t>My 2 babies&amp;I are currently staying here due to Hurricane Harvey But If I tell you this is 1 of the Best hotels I've been to!! The rooms are Spacious&amp;Clean!! The WHOLE Team of Members that work here is EXCELLENT!! Every Single 1 of them!! They make you feel at Home&amp;very Welcome!! This Is Home Away From Home MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Austin D, General Manager at Sonesta ES Suites Houston - NASA Clear Lake, responded to this reviewResponded December 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 13, 2017</t>
+  </si>
+  <si>
+    <t>My 2 babies&amp;I are currently staying here due to Hurricane Harvey But If I tell you this is 1 of the Best hotels I've been to!! The rooms are Spacious&amp;Clean!! The WHOLE Team of Members that work here is EXCELLENT!! Every Single 1 of them!! They make you feel at Home&amp;very Welcome!! This Is Home Away From Home More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r536042275-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>536042275</t>
+  </si>
+  <si>
+    <t>10/25/2017</t>
+  </si>
+  <si>
+    <t>Terrible Place to stay!</t>
+  </si>
+  <si>
+    <t>First I am a disabled individual and it wasn't until I arrived at your location that I was made aware you have no elevators. I explained this to the lady at the front desk, she told me all first floor rooms are multiple room suites aside from that she could not do anything for me. As I was trying to figure out how to adjust everything and see what pricing the only much more expensive handicapped rooms were she told me those weren't available and let me know what my total was. Even though she showed no empathy for my complication and rushed me through check-in we had no where else to stay at that moment. I approved for the total to be split between two cards only approved very specific amounts on each, she swiped them both then asked to try again as the computer was having some trouble. Tried at least 2 more times and then said alright everything is taken care of, I signed the receipt and made sure to ask I wasn't going to be charged multiple times for each swipe. Within an hour I was called by one of Banks to inform me the fraud detection had noticed strange charges on my card. Each swipe had actually charged me and at one point she even managed to double the charge at one time, totaling for over a thousand dollars worth of charges, luckily they had...First I am a disabled individual and it wasn't until I arrived at your location that I was made aware you have no elevators. I explained this to the lady at the front desk, she told me all first floor rooms are multiple room suites aside from that she could not do anything for me. As I was trying to figure out how to adjust everything and see what pricing the only much more expensive handicapped rooms were she told me those weren't available and let me know what my total was. Even though she showed no empathy for my complication and rushed me through check-in we had no where else to stay at that moment. I approved for the total to be split between two cards only approved very specific amounts on each, she swiped them both then asked to try again as the computer was having some trouble. Tried at least 2 more times and then said alright everything is taken care of, I signed the receipt and made sure to ask I wasn't going to be charged multiple times for each swipe. Within an hour I was called by one of Banks to inform me the fraud detection had noticed strange charges on my card. Each swipe had actually charged me and at one point she even managed to double the charge at one time, totaling for over a thousand dollars worth of charges, luckily they had been frozen rather than allowed to process. I explained it was a mistake and the bank corrected the matter and said that the one charge will be processed correctly. Apparently though the front desk did not process the cards correctly and even though I was staying at this location for 4 days (during which my husband had to carry me up and down the stairs) the desk nor the managerial staff did not contact me to resolve the matter. At checkout I asked the lady helping me checkout if everything had been taken care of and she said yes, I took my receipt which showed everything had been processed as I approved it. However, that afternoon I checked my email and I had received an alert from my other card that I had gotten an overdraft charge. I called back and spoke to the Manager who was very rude, he told me basically it was my fault for not having enough money. Then said he will have to speak to his staff as I shouldn't have been allowed to check-in in the first place if their was an issue running the cards. My biggest issue was if I was staying there why was running my cards for random amounts more than what I had approved each specifically for the best option. Why not just call the room or contact me as I was on lMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>First I am a disabled individual and it wasn't until I arrived at your location that I was made aware you have no elevators. I explained this to the lady at the front desk, she told me all first floor rooms are multiple room suites aside from that she could not do anything for me. As I was trying to figure out how to adjust everything and see what pricing the only much more expensive handicapped rooms were she told me those weren't available and let me know what my total was. Even though she showed no empathy for my complication and rushed me through check-in we had no where else to stay at that moment. I approved for the total to be split between two cards only approved very specific amounts on each, she swiped them both then asked to try again as the computer was having some trouble. Tried at least 2 more times and then said alright everything is taken care of, I signed the receipt and made sure to ask I wasn't going to be charged multiple times for each swipe. Within an hour I was called by one of Banks to inform me the fraud detection had noticed strange charges on my card. Each swipe had actually charged me and at one point she even managed to double the charge at one time, totaling for over a thousand dollars worth of charges, luckily they had...First I am a disabled individual and it wasn't until I arrived at your location that I was made aware you have no elevators. I explained this to the lady at the front desk, she told me all first floor rooms are multiple room suites aside from that she could not do anything for me. As I was trying to figure out how to adjust everything and see what pricing the only much more expensive handicapped rooms were she told me those weren't available and let me know what my total was. Even though she showed no empathy for my complication and rushed me through check-in we had no where else to stay at that moment. I approved for the total to be split between two cards only approved very specific amounts on each, she swiped them both then asked to try again as the computer was having some trouble. Tried at least 2 more times and then said alright everything is taken care of, I signed the receipt and made sure to ask I wasn't going to be charged multiple times for each swipe. Within an hour I was called by one of Banks to inform me the fraud detection had noticed strange charges on my card. Each swipe had actually charged me and at one point she even managed to double the charge at one time, totaling for over a thousand dollars worth of charges, luckily they had been frozen rather than allowed to process. I explained it was a mistake and the bank corrected the matter and said that the one charge will be processed correctly. Apparently though the front desk did not process the cards correctly and even though I was staying at this location for 4 days (during which my husband had to carry me up and down the stairs) the desk nor the managerial staff did not contact me to resolve the matter. At checkout I asked the lady helping me checkout if everything had been taken care of and she said yes, I took my receipt which showed everything had been processed as I approved it. However, that afternoon I checked my email and I had received an alert from my other card that I had gotten an overdraft charge. I called back and spoke to the Manager who was very rude, he told me basically it was my fault for not having enough money. Then said he will have to speak to his staff as I shouldn't have been allowed to check-in in the first place if their was an issue running the cards. My biggest issue was if I was staying there why was running my cards for random amounts more than what I had approved each specifically for the best option. Why not just call the room or contact me as I was on lMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r514416869-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>514416869</t>
+  </si>
+  <si>
+    <t>08/17/2017</t>
+  </si>
+  <si>
+    <t>Perfect for Us</t>
+  </si>
+  <si>
+    <t>.
+This is the perfect place for families wanting to visit NASA Space Center.  I was a little concerned after reading some of the reviews but we had absolutely no problems.  There seems to be 4 suites in 12 buildings.  We were in Building 3, Room 321,  facing the street which was sometimes a little noisy.  If that bothers you, try to get a building further back.  Also, if you don't like stairs get something on the first floor.  We were very convenient to the lobby, dining area and pool.  The pool does not face the parking lot as some other reviewer had mentioned.  It is directly behind the lobby building and is surrounded by the hotel itself.  There is also a hot tub.  If you want to walk out your door and be at the pool, ask for Building 12 but none of the rooms are very far from it.  The breakfast was nice, a little better than most in my opinion.  The seating area is a bit small but they opened the conference room for more seating when needed.  Several weekdays, they have special events for guests but we were there on a weekend so cannot comment on them.  Employees were all friendly and helpful.
+Our suite was very clean (and I am very picky).  Kudos to the housekeeping staff.  We had a bedroom with a king bed and bath, a bedroom with two queens and a bath,....This is the perfect place for families wanting to visit NASA Space Center.  I was a little concerned after reading some of the reviews but we had absolutely no problems.  There seems to be 4 suites in 12 buildings.  We were in Building 3, Room 321,  facing the street which was sometimes a little noisy.  If that bothers you, try to get a building further back.  Also, if you don't like stairs get something on the first floor.  We were very convenient to the lobby, dining area and pool.  The pool does not face the parking lot as some other reviewer had mentioned.  It is directly behind the lobby building and is surrounded by the hotel itself.  There is also a hot tub.  If you want to walk out your door and be at the pool, ask for Building 12 but none of the rooms are very far from it.  The breakfast was nice, a little better than most in my opinion.  The seating area is a bit small but they opened the conference room for more seating when needed.  Several weekdays, they have special events for guests but we were there on a weekend so cannot comment on them.  Employees were all friendly and helpful.Our suite was very clean (and I am very picky).  Kudos to the housekeeping staff.  We had a bedroom with a king bed and bath, a bedroom with two queens and a bath, a sitting area with a pull-out sofa and a small kitchen which we did not use since we ate out most of the time.  The set-up was perfect for two adults and three children.  My two minor complaints was that the bedroom doors were not solid, just french doors with sheers on them which could be a problem depending on your situation and there was a gap under the door where new stripping was needed.The location is great, about five minutes from the space center, next to a Starbucks and a McDonald's.  Grocery stores, a pharmacy, and lots of restaurants are nearby.  One note about the address.  W. Bay Area Blvd. turns into Bay Area Blvd.  Our GPS took us to W. Bay Blvd. which was not correct.  We drove on a few miles and realized what had happened so be sure to use Bay Blvd. on your GPS to avoid confusion.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>.
+This is the perfect place for families wanting to visit NASA Space Center.  I was a little concerned after reading some of the reviews but we had absolutely no problems.  There seems to be 4 suites in 12 buildings.  We were in Building 3, Room 321,  facing the street which was sometimes a little noisy.  If that bothers you, try to get a building further back.  Also, if you don't like stairs get something on the first floor.  We were very convenient to the lobby, dining area and pool.  The pool does not face the parking lot as some other reviewer had mentioned.  It is directly behind the lobby building and is surrounded by the hotel itself.  There is also a hot tub.  If you want to walk out your door and be at the pool, ask for Building 12 but none of the rooms are very far from it.  The breakfast was nice, a little better than most in my opinion.  The seating area is a bit small but they opened the conference room for more seating when needed.  Several weekdays, they have special events for guests but we were there on a weekend so cannot comment on them.  Employees were all friendly and helpful.
+Our suite was very clean (and I am very picky).  Kudos to the housekeeping staff.  We had a bedroom with a king bed and bath, a bedroom with two queens and a bath,....This is the perfect place for families wanting to visit NASA Space Center.  I was a little concerned after reading some of the reviews but we had absolutely no problems.  There seems to be 4 suites in 12 buildings.  We were in Building 3, Room 321,  facing the street which was sometimes a little noisy.  If that bothers you, try to get a building further back.  Also, if you don't like stairs get something on the first floor.  We were very convenient to the lobby, dining area and pool.  The pool does not face the parking lot as some other reviewer had mentioned.  It is directly behind the lobby building and is surrounded by the hotel itself.  There is also a hot tub.  If you want to walk out your door and be at the pool, ask for Building 12 but none of the rooms are very far from it.  The breakfast was nice, a little better than most in my opinion.  The seating area is a bit small but they opened the conference room for more seating when needed.  Several weekdays, they have special events for guests but we were there on a weekend so cannot comment on them.  Employees were all friendly and helpful.Our suite was very clean (and I am very picky).  Kudos to the housekeeping staff.  We had a bedroom with a king bed and bath, a bedroom with two queens and a bath, a sitting area with a pull-out sofa and a small kitchen which we did not use since we ate out most of the time.  The set-up was perfect for two adults and three children.  My two minor complaints was that the bedroom doors were not solid, just french doors with sheers on them which could be a problem depending on your situation and there was a gap under the door where new stripping was needed.The location is great, about five minutes from the space center, next to a Starbucks and a McDonald's.  Grocery stores, a pharmacy, and lots of restaurants are nearby.  One note about the address.  W. Bay Area Blvd. turns into Bay Area Blvd.  Our GPS took us to W. Bay Blvd. which was not correct.  We drove on a few miles and realized what had happened so be sure to use Bay Blvd. on your GPS to avoid confusion.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r514248287-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>514248287</t>
+  </si>
+  <si>
+    <t>Great to visit NASA</t>
+  </si>
+  <si>
+    <t>The hotel is what can be expected from any Residence Inns. The pool is small. Not long enough to swim, but perfect for refreshing. It has a 24 hour gym with a cross-trainer, two tread mills, and a few weights. It also has the usual complementary breakfast and meet and greet evenings with free snacks and/or BBQ. The staff is incredibly friendly and makes you feel welcome. The location is perfect to visit NASA center. Also, it has a park and ride 50 meters down the road, with (I think) direct buses to Houston downtown. Otherwise it is a little far from the city center. There are a couple of mall nearby too.Pets are allowed.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>The hotel is what can be expected from any Residence Inns. The pool is small. Not long enough to swim, but perfect for refreshing. It has a 24 hour gym with a cross-trainer, two tread mills, and a few weights. It also has the usual complementary breakfast and meet and greet evenings with free snacks and/or BBQ. The staff is incredibly friendly and makes you feel welcome. The location is perfect to visit NASA center. Also, it has a park and ride 50 meters down the road, with (I think) direct buses to Houston downtown. Otherwise it is a little far from the city center. There are a couple of mall nearby too.Pets are allowed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r504471917-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>504471917</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Below average </t>
+  </si>
+  <si>
+    <t>As others have noted, this is an older style RI built to look like an apartment complex. Someone mentioned all the red decor - I've seen it before. What I haven't seen before, however, is a room with no skillets, pots, or even a roll of paper towels in the kitchen. I noticed when we were looking for a cookie sheet to reheat pizza for the kids - there wasn't one of those either. As noted by others, the mattresses are stupid soft and have dimples in them where everyone lays down. Biggest gripe, however, is that they shut down the weekend breakfast at 9:30. Most Marriotts run it until 10.  Their weekday service is from 6-9 (3 hrs), but only 7-9:30 (2.5 hrs) on the weekends. This is one I won't return to. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Pebbles A, General Manager at Sonesta ES Suites Houston - NASA Clear Lake, responded to this reviewResponded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2017</t>
+  </si>
+  <si>
+    <t>As others have noted, this is an older style RI built to look like an apartment complex. Someone mentioned all the red decor - I've seen it before. What I haven't seen before, however, is a room with no skillets, pots, or even a roll of paper towels in the kitchen. I noticed when we were looking for a cookie sheet to reheat pizza for the kids - there wasn't one of those either. As noted by others, the mattresses are stupid soft and have dimples in them where everyone lays down. Biggest gripe, however, is that they shut down the weekend breakfast at 9:30. Most Marriotts run it until 10.  Their weekday service is from 6-9 (3 hrs), but only 7-9:30 (2.5 hrs) on the weekends. This is one I won't return to. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r473843940-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>473843940</t>
+  </si>
+  <si>
+    <t>04/09/2017</t>
+  </si>
+  <si>
+    <t>Residence Inn Houston NASA</t>
+  </si>
+  <si>
+    <t>The Residence Inn Houston NASA is my go to place while traveling to Houston?Webster. It may not be the most fancy place I've stayed, but I've been going there for years and they treat me like family. I feel very much at home there and that's a lot to say for a hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Pebbles A, General Manager at Sonesta ES Suites Houston - NASA Clear Lake, responded to this reviewResponded May 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2017</t>
+  </si>
+  <si>
+    <t>The Residence Inn Houston NASA is my go to place while traveling to Houston?Webster. It may not be the most fancy place I've stayed, but I've been going there for years and they treat me like family. I feel very much at home there and that's a lot to say for a hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r468509995-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>468509995</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>2 night stay</t>
+  </si>
+  <si>
+    <t>Nice updated rooms, full kitchens. Breakfast was good - both hot and cold items , breakfast room is small but easy enough to just eat in the room. Price for our one bedroom was excellent.  Very close to NASA - 5 min drive. Also only about 40 minutes to Galveston for a beach day. Pool is small , not heated so too cold to swim in mid March. Grocery store next door so easy to buy food/drink items. Kemah boardwalk is also close by - about 15 min drive - lots of restaurants , amusements etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Nice updated rooms, full kitchens. Breakfast was good - both hot and cold items , breakfast room is small but easy enough to just eat in the room. Price for our one bedroom was excellent.  Very close to NASA - 5 min drive. Also only about 40 minutes to Galveston for a beach day. Pool is small , not heated so too cold to swim in mid March. Grocery store next door so easy to buy food/drink items. Kemah boardwalk is also close by - about 15 min drive - lots of restaurants , amusements etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r461148518-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>461148518</t>
+  </si>
+  <si>
+    <t>02/19/2017</t>
+  </si>
+  <si>
+    <t>Can you say red?</t>
+  </si>
+  <si>
+    <t>I've stayed in several RIs and this is the first one I've ever stayed in which was decorated with so much RED.  Heavy red drapes and bed skirting, dark red upholstery and simulated leather on the furniture, and a deep red accent wall over the bed.  I'm not much of one for predominantly red decorations, but you may like it. Just be prepared when you walk in the room. I had a bit of a shock. 
+The complex was built in the 1980s in the original style which Marriott had when they started the Residence Inn brand. It's more like an apartment complex than anything else.  And although the rooms were updated in 2011, it still has an old feel about the place.  There's two stories throughout the complex, and no elevators.  
+The windows are single pane and a bit moldy.  Otherwise the room seems clean enough, although they use a strong deodorizer which I dislike.  Trying to clear the scent a bit, I found I could only open one window, and that was only a couple of inches. No screens are on the one window which opened, so I closed it quickly as bugs started to come in.  
+The room seem well insulated. I couldn't hear any neighbors through the walls. I could hear doors slam closed on the public landing; the doors are heavy and close strongly.  And I could hear the few sounds in the parking lot,...I've stayed in several RIs and this is the first one I've ever stayed in which was decorated with so much RED.  Heavy red drapes and bed skirting, dark red upholstery and simulated leather on the furniture, and a deep red accent wall over the bed.  I'm not much of one for predominantly red decorations, but you may like it. Just be prepared when you walk in the room. I had a bit of a shock. The complex was built in the 1980s in the original style which Marriott had when they started the Residence Inn brand. It's more like an apartment complex than anything else.  And although the rooms were updated in 2011, it still has an old feel about the place.  There's two stories throughout the complex, and no elevators.  The windows are single pane and a bit moldy.  Otherwise the room seems clean enough, although they use a strong deodorizer which I dislike.  Trying to clear the scent a bit, I found I could only open one window, and that was only a couple of inches. No screens are on the one window which opened, so I closed it quickly as bugs started to come in.  The room seem well insulated. I couldn't hear any neighbors through the walls. I could hear doors slam closed on the public landing; the doors are heavy and close strongly.  And I could hear the few sounds in the parking lot, through the single pane windows.  There's a busy train track about half a mile away.  I love the sound of American trains, so it wasn't an issue for me.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Pebbles A, General Manager at Sonesta ES Suites Houston - NASA Clear Lake, responded to this reviewResponded February 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2017</t>
+  </si>
+  <si>
+    <t>I've stayed in several RIs and this is the first one I've ever stayed in which was decorated with so much RED.  Heavy red drapes and bed skirting, dark red upholstery and simulated leather on the furniture, and a deep red accent wall over the bed.  I'm not much of one for predominantly red decorations, but you may like it. Just be prepared when you walk in the room. I had a bit of a shock. 
+The complex was built in the 1980s in the original style which Marriott had when they started the Residence Inn brand. It's more like an apartment complex than anything else.  And although the rooms were updated in 2011, it still has an old feel about the place.  There's two stories throughout the complex, and no elevators.  
+The windows are single pane and a bit moldy.  Otherwise the room seems clean enough, although they use a strong deodorizer which I dislike.  Trying to clear the scent a bit, I found I could only open one window, and that was only a couple of inches. No screens are on the one window which opened, so I closed it quickly as bugs started to come in.  
+The room seem well insulated. I couldn't hear any neighbors through the walls. I could hear doors slam closed on the public landing; the doors are heavy and close strongly.  And I could hear the few sounds in the parking lot,...I've stayed in several RIs and this is the first one I've ever stayed in which was decorated with so much RED.  Heavy red drapes and bed skirting, dark red upholstery and simulated leather on the furniture, and a deep red accent wall over the bed.  I'm not much of one for predominantly red decorations, but you may like it. Just be prepared when you walk in the room. I had a bit of a shock. The complex was built in the 1980s in the original style which Marriott had when they started the Residence Inn brand. It's more like an apartment complex than anything else.  And although the rooms were updated in 2011, it still has an old feel about the place.  There's two stories throughout the complex, and no elevators.  The windows are single pane and a bit moldy.  Otherwise the room seems clean enough, although they use a strong deodorizer which I dislike.  Trying to clear the scent a bit, I found I could only open one window, and that was only a couple of inches. No screens are on the one window which opened, so I closed it quickly as bugs started to come in.  The room seem well insulated. I couldn't hear any neighbors through the walls. I could hear doors slam closed on the public landing; the doors are heavy and close strongly.  And I could hear the few sounds in the parking lot, through the single pane windows.  There's a busy train track about half a mile away.  I love the sound of American trains, so it wasn't an issue for me.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r450021318-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>450021318</t>
+  </si>
+  <si>
+    <t>01/06/2017</t>
+  </si>
+  <si>
+    <t>Pleasant stay</t>
+  </si>
+  <si>
+    <t>We stayed here for 3 nights while visiting the Houston/Galveston area.  This hotel is located between both cities near the freeway.  It is also very close to the space center if you are planning on visiting it.  Our room was very spacious and included a great breakfast each morning.  It is convenient to many different restaurants so it makes a great base for the area.  The staff was very friendly and could not have done more for us.  We would stay at this hotel again the next time we are in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>We stayed here for 3 nights while visiting the Houston/Galveston area.  This hotel is located between both cities near the freeway.  It is also very close to the space center if you are planning on visiting it.  Our room was very spacious and included a great breakfast each morning.  It is convenient to many different restaurants so it makes a great base for the area.  The staff was very friendly and could not have done more for us.  We would stay at this hotel again the next time we are in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r448854004-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>448854004</t>
+  </si>
+  <si>
+    <t>01/03/2017</t>
+  </si>
+  <si>
+    <t>Pleasant stay and good breakfast</t>
+  </si>
+  <si>
+    <t>Stayed here for 1 night while visiting Houston and NASA with the family. Clean and well kept hotel rooms with lots of space and kitchenette. Really good quality breakfast with good selection of eggs, sausage, waffles, fruits, etc. Even the coffee was good. The lobby felt new or recently renovated. Nice comfortable hotel for the family.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for 1 night while visiting Houston and NASA with the family. Clean and well kept hotel rooms with lots of space and kitchenette. Really good quality breakfast with good selection of eggs, sausage, waffles, fruits, etc. Even the coffee was good. The lobby felt new or recently renovated. Nice comfortable hotel for the family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r446448107-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>446448107</t>
+  </si>
+  <si>
+    <t>12/24/2016</t>
+  </si>
+  <si>
+    <t>Great long term stay location in Clear Lake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residence Inn Houston Clear Lake is a Great long term stay location in Clear Lake, near NASA Johnson Space Center and convenient to Houston, Galveston, Clear Lake and Gulf area attractions. We had a great room with room to enjoy your stay with a kitchen and desk area. The morning breakfast bar every morning is fully stocked with fruit, eggs, breakfast meat, waffles, juice and coffee. Wednesday evenings they have a desert bar or on alternate Wednesdays they have special food available for purchase. Office supervisor Beverly LeBlanc was especially helpful. We enjoyed our month's stay. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r436889991-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>436889991</t>
+  </si>
+  <si>
+    <t>11/13/2016</t>
+  </si>
+  <si>
+    <t>Very reliable, nice people</t>
+  </si>
+  <si>
+    <t>Have been staying at this hotel for 17 years. The people are vey friendly and they remember you. The rooms are large and roomy with a nice kitchen and adequate bathroom.  Rooms were updated about 3 years ago. Beds are comfortable.  The hotel has an excellent location near all the restaurants and shops near Baybrook mall.  Breakfasts are adequate and new chobani yogurt is a real plus : waffles are also good but could do with more than 1 waffle machine.   Coffee needs to be improved: use a better brand with richer and smoother flavour.  Wardrobes were not updated and are now rusting.  Requests for specific room location phoned in ahead need to be respected: either say yes and do: or be honest and say not viable.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Pebbles A, General Manager at Sonesta ES Suites Houston - NASA Clear Lake, responded to this reviewResponded November 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 15, 2016</t>
+  </si>
+  <si>
+    <t>Have been staying at this hotel for 17 years. The people are vey friendly and they remember you. The rooms are large and roomy with a nice kitchen and adequate bathroom.  Rooms were updated about 3 years ago. Beds are comfortable.  The hotel has an excellent location near all the restaurants and shops near Baybrook mall.  Breakfasts are adequate and new chobani yogurt is a real plus : waffles are also good but could do with more than 1 waffle machine.   Coffee needs to be improved: use a better brand with richer and smoother flavour.  Wardrobes were not updated and are now rusting.  Requests for specific room location phoned in ahead need to be respected: either say yes and do: or be honest and say not viable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r435194199-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>435194199</t>
+  </si>
+  <si>
+    <t>11/06/2016</t>
+  </si>
+  <si>
+    <t>Good Location for NASA</t>
+  </si>
+  <si>
+    <t>This hotel is well located for NASA and the Kemah Boardwalk.  Excellent bed and linens.  Paul Mitchell toiletries - wonderful towels.  Welcoming staff.  The breakfast is the usual fair - could be better.  Free USA Today.  Good Internet.  Starbucks is right next door as well as McDonald'sMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Pebbles A, General Manager at Sonesta ES Suites Houston - NASA Clear Lake, responded to this reviewResponded December 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is well located for NASA and the Kemah Boardwalk.  Excellent bed and linens.  Paul Mitchell toiletries - wonderful towels.  Welcoming staff.  The breakfast is the usual fair - could be better.  Free USA Today.  Good Internet.  Starbucks is right next door as well as McDonald'sMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r431885365-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>431885365</t>
+  </si>
+  <si>
+    <t>10/26/2016</t>
+  </si>
+  <si>
+    <t>Waiting for a cruise.</t>
+  </si>
+  <si>
+    <t>This is a very nice and comfortable place to stay. the staff were all very helpful with answers for all my questions. When we arrived several hours before checkin i spoke to the front desk clerk and asked about early checkin, I was told not a problem.  Thank you all for your help.MoreShow less</t>
+  </si>
+  <si>
+    <t>Pebbles A, General Manager at Sonesta ES Suites Houston - NASA Clear Lake, responded to this reviewResponded November 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2016</t>
+  </si>
+  <si>
+    <t>This is a very nice and comfortable place to stay. the staff were all very helpful with answers for all my questions. When we arrived several hours before checkin i spoke to the front desk clerk and asked about early checkin, I was told not a problem.  Thank you all for your help.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r415128873-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>415128873</t>
+  </si>
+  <si>
+    <t>09/05/2016</t>
+  </si>
+  <si>
+    <t>Family fun</t>
+  </si>
+  <si>
+    <t>We took our son to NASA for his birthday and stayed at the Residence Inn. I'd never stayed at a Residence before but the price, location &amp; pictures were good. We were happy to check in &amp; no be disappointed. Our room 625 was roomy and very clean. They allow 2 dogs for a $100 fee which was very low compared to other chains. The front desk was courteous &amp; allowed us a late check out when my husband went swimming with our keys in his pocket shorting out the alarm fob. This location is convenient for visiting NASA, down 35 min to the beach or 15 min up to Houston. They'll go grocery shopping for you @ no service fee. I'll def stay here or another Residence Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>Pebbles A, General Manager at Sonesta ES Suites Houston - NASA Clear Lake, responded to this reviewResponded October 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2016</t>
+  </si>
+  <si>
+    <t>We took our son to NASA for his birthday and stayed at the Residence Inn. I'd never stayed at a Residence before but the price, location &amp; pictures were good. We were happy to check in &amp; no be disappointed. Our room 625 was roomy and very clean. They allow 2 dogs for a $100 fee which was very low compared to other chains. The front desk was courteous &amp; allowed us a late check out when my husband went swimming with our keys in his pocket shorting out the alarm fob. This location is convenient for visiting NASA, down 35 min to the beach or 15 min up to Houston. They'll go grocery shopping for you @ no service fee. I'll def stay here or another Residence Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r414193153-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>414193153</t>
+  </si>
+  <si>
+    <t>09/03/2016</t>
+  </si>
+  <si>
+    <t>Pre-cruise stay</t>
+  </si>
+  <si>
+    <t>We always stay in this area before we cruise because it is cheaper than Galveston.  We love this Hotel.  The beds are super comfortable.  The A.C. will freeze you out and you can make the fan blow non-stop for noise.  This Hotel has the market cornered on quiet.  I never heard a sound all night long.   The rooms are spacious and very nice.  It has a living room and a kitchenette.  The coffee the next morning was the best hotel coffee I have ever had in all my travels.  The staff here was very friendly and accommodating.  We used a website to book this Hotel but we love it so much we may just book direct the next time.  The pool and hot run are a nice size and there is a huge grill and volleyball court available as well.  Breakfast looked and smelled great.  I would give it a ten star rating if I could.MoreShow less</t>
+  </si>
+  <si>
+    <t>Pebbles A, General Manager at Sonesta ES Suites Houston - NASA Clear Lake, responded to this reviewResponded November 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2016</t>
+  </si>
+  <si>
+    <t>We always stay in this area before we cruise because it is cheaper than Galveston.  We love this Hotel.  The beds are super comfortable.  The A.C. will freeze you out and you can make the fan blow non-stop for noise.  This Hotel has the market cornered on quiet.  I never heard a sound all night long.   The rooms are spacious and very nice.  It has a living room and a kitchenette.  The coffee the next morning was the best hotel coffee I have ever had in all my travels.  The staff here was very friendly and accommodating.  We used a website to book this Hotel but we love it so much we may just book direct the next time.  The pool and hot run are a nice size and there is a huge grill and volleyball court available as well.  Breakfast looked and smelled great.  I would give it a ten star rating if I could.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r408082452-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>408082452</t>
+  </si>
+  <si>
+    <t>08/20/2016</t>
+  </si>
+  <si>
+    <t>Fabulous time at Residence Inn Clear Lake</t>
+  </si>
+  <si>
+    <t>Stayed here for 6 weeks. Amazing and friendly staff: Beverly, Matt, Amy, Elizabeth, Pebbles, Ruth, Blanca, Hortensia, Oscar, Jose, Jeff, Feliciana, Jennifer, Andrea, and the great kitchen and house-keeping staff. Great complimentary breakfast selection and outstanding maintenance service. We could not have been happier with our time spent here. The staff is extremely responsive and  take excellent care of our needs.  We enjoyed the pool immensely and made good use of the exercise room.  Fresh coffee and hot chocolate are always available and the freshly baked cookies are amazingly good.   We enjoyed and looked forward to the mix every Mondays to Wednesdays with Elizabeth as the host.  To sum up this is a nice, clean, friendly and conveniently located hotel.   Highly recommended!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for 6 weeks. Amazing and friendly staff: Beverly, Matt, Amy, Elizabeth, Pebbles, Ruth, Blanca, Hortensia, Oscar, Jose, Jeff, Feliciana, Jennifer, Andrea, and the great kitchen and house-keeping staff. Great complimentary breakfast selection and outstanding maintenance service. We could not have been happier with our time spent here. The staff is extremely responsive and  take excellent care of our needs.  We enjoyed the pool immensely and made good use of the exercise room.  Fresh coffee and hot chocolate are always available and the freshly baked cookies are amazingly good.   We enjoyed and looked forward to the mix every Mondays to Wednesdays with Elizabeth as the host.  To sum up this is a nice, clean, friendly and conveniently located hotel.   Highly recommended!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r381841139-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>381841139</t>
+  </si>
+  <si>
+    <t>06/12/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very Nice Hotel </t>
+  </si>
+  <si>
+    <t>Spent one night at this hotel before a cruise out of Galveston. The price was much more affordable. Arrived before normal check in and was able to go straight to the room. The room was large and well appointed. Small pool onsite which was good for a refreshing afternoon swim. Very near NASA, restaurants and other shopping places. Would definitely stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Spent one night at this hotel before a cruise out of Galveston. The price was much more affordable. Arrived before normal check in and was able to go straight to the room. The room was large and well appointed. Small pool onsite which was good for a refreshing afternoon swim. Very near NASA, restaurants and other shopping places. Would definitely stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r377952579-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>377952579</t>
+  </si>
+  <si>
+    <t>05/30/2016</t>
+  </si>
+  <si>
+    <t>Clean and friendly staff</t>
+  </si>
+  <si>
+    <t>We stayed here on our way to catch a cruise our of Galveston, Texas.  We stayed here for two nights and went to NASA Johnson Space Center on Saturday.  The lady who cooked breakfast each day was awesome.  She was very friendly and fixed an incredible breakfast each day.  The rooms were quiet and very clean.  The front desk staff was also very friendly and accommodating.  I highly recommend this hotel the next time that you are in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>We stayed here on our way to catch a cruise our of Galveston, Texas.  We stayed here for two nights and went to NASA Johnson Space Center on Saturday.  The lady who cooked breakfast each day was awesome.  She was very friendly and fixed an incredible breakfast each day.  The rooms were quiet and very clean.  The front desk staff was also very friendly and accommodating.  I highly recommend this hotel the next time that you are in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r374135659-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>374135659</t>
+  </si>
+  <si>
+    <t>05/18/2016</t>
+  </si>
+  <si>
+    <t>Stayed two months</t>
+  </si>
+  <si>
+    <t>Furniture was very hard and uncomfortable in living room. Great breakfasts and happy hour snacks just wish they would have been more than two days a week. Elizabeth is one of the stand out employees. Front desk was allways helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Furniture was very hard and uncomfortable in living room. Great breakfasts and happy hour snacks just wish they would have been more than two days a week. Elizabeth is one of the stand out employees. Front desk was allways helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r373416720-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>373416720</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>Verified Guest</t>
+  </si>
+  <si>
+    <t>I have been a frequent guest at Residence Inn Houston Clear Lake. The hotel staff is top notch, the hotel service is second to none. They treat you like you're at a fine resort or Five Star hotel. Beverly,  Andrea, Pebbles,Davin, Rebekah, Mathew, and Jeff are outstanding. The rooms are emaculant and the grounds are beautiful.  I am a long time Hilton Honors and Holiday Inn reward club member. I refuse to go to any other hotel when the Clear Lake Residence Inn is available. I was a loyal customer  with Hilton,  but I can't justify not staying at Residence Inn. The location is also a game changer. Thanks for near perfection. MoreShow less</t>
+  </si>
+  <si>
+    <t>I have been a frequent guest at Residence Inn Houston Clear Lake. The hotel staff is top notch, the hotel service is second to none. They treat you like you're at a fine resort or Five Star hotel. Beverly,  Andrea, Pebbles,Davin, Rebekah, Mathew, and Jeff are outstanding. The rooms are emaculant and the grounds are beautiful.  I am a long time Hilton Honors and Holiday Inn reward club member. I refuse to go to any other hotel when the Clear Lake Residence Inn is available. I was a loyal customer  with Hilton,  but I can't justify not staying at Residence Inn. The location is also a game changer. Thanks for near perfection. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r368189073-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>368189073</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t>Great STAFF</t>
+  </si>
+  <si>
+    <t>Jeff knows just how to make you feel at home!!  Quick to respond to the needs of the guest and always friendly!!! Makes you feel as if you are a long time friend.  It's a pleasure to know that the staff enjoys their jobs.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jeff knows just how to make you feel at home!!  Quick to respond to the needs of the guest and always friendly!!! Makes you feel as if you are a long time friend.  It's a pleasure to know that the staff enjoys their jobs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r367015940-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>367015940</t>
+  </si>
+  <si>
+    <t>04/24/2016</t>
+  </si>
+  <si>
+    <t>Outstanding Service</t>
+  </si>
+  <si>
+    <t>My wife bought a new purse and threw the old one in the trash bucket in the room.Much later that day... after the room was cleaned, she realized what she did and we spoke to Matt at the front desk who went out to the dumpster in the rain to find the bag if trash from our room -- WOW THAT IS GOOD SERVICE!!Nice hotel but with service that goes above and beyondMoreShow less</t>
+  </si>
+  <si>
+    <t>My wife bought a new purse and threw the old one in the trash bucket in the room.Much later that day... after the room was cleaned, she realized what she did and we spoke to Matt at the front desk who went out to the dumpster in the rain to find the bag if trash from our room -- WOW THAT IS GOOD SERVICE!!Nice hotel but with service that goes above and beyondMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r356138568-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>356138568</t>
+  </si>
+  <si>
+    <t>03/16/2016</t>
+  </si>
+  <si>
+    <t>Great service and hospitality</t>
+  </si>
+  <si>
+    <t>The staff takes care of their guests at the Residence Inn Clear Lake.  When I had difficulty sleeping due to strange work hours, Beverly helped change my room so that I was away from the noisier parts of the hotel and able to get some rest.  A variety of food for breakfast and evening refreshments are the icing on the cake.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>The staff takes care of their guests at the Residence Inn Clear Lake.  When I had difficulty sleeping due to strange work hours, Beverly helped change my room so that I was away from the noisier parts of the hotel and able to get some rest.  A variety of food for breakfast and evening refreshments are the icing on the cake.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r349300586-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>349300586</t>
+  </si>
+  <si>
+    <t>02/19/2016</t>
+  </si>
+  <si>
+    <t>Comfy beds but not thorough room service</t>
+  </si>
+  <si>
+    <t>Here for one night for a business trip.  Easy and quick check in.  It is close to the Boeing building and right next to a Starbucks.  Beds were VERY comfy.  Breakfast was standard - powered eggs and sausage.  There is a real fire place, but you must purchase firewood at a store.  As I was packing up, I noticed someone's wash cloth near the night stand.  It looked like it had been there a while.  If housekeeping had done a thorough job, they should have seen it before me.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Pebbles A, General Manager at Sonesta ES Suites Houston - NASA Clear Lake, responded to this reviewResponded December 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 6, 2016</t>
+  </si>
+  <si>
+    <t>Here for one night for a business trip.  Easy and quick check in.  It is close to the Boeing building and right next to a Starbucks.  Beds were VERY comfy.  Breakfast was standard - powered eggs and sausage.  There is a real fire place, but you must purchase firewood at a store.  As I was packing up, I noticed someone's wash cloth near the night stand.  It looked like it had been there a while.  If housekeeping had done a thorough job, they should have seen it before me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r348516733-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>348516733</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>Pleasurable Stay, Okay Food</t>
+  </si>
+  <si>
+    <t>My duration of stay: 2 nightsLocation:1. Good convenient 2-3 miles from NASA, 10 miles from Keemah boardwalk, 32 miles (45 mins) from downtown Houston2. McDonalds, Starbucks right by the hotel as wellPros1. Apartment type setting, so if you are carrying luggages it is easier to transfer.2. Nice, friendly staff (Beverly was the front desk attendant, and saw regularly at breakfast as well)3. Very clean, well taken care facility as you would expect from Marriott4. Clean room, adequate towels, coffee supplies provided5. (this is imp for me) Nice soft pillowsCons1. If you have guests travelling with you, they have to pass the bed &amp; the bedroom to reach the only bathroom - thus no privacy in the bedroom if guests are using the sofa sleeper.2. Parking lot gets full. I wish they had reserved parking in the front of apartment rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>My duration of stay: 2 nightsLocation:1. Good convenient 2-3 miles from NASA, 10 miles from Keemah boardwalk, 32 miles (45 mins) from downtown Houston2. McDonalds, Starbucks right by the hotel as wellPros1. Apartment type setting, so if you are carrying luggages it is easier to transfer.2. Nice, friendly staff (Beverly was the front desk attendant, and saw regularly at breakfast as well)3. Very clean, well taken care facility as you would expect from Marriott4. Clean room, adequate towels, coffee supplies provided5. (this is imp for me) Nice soft pillowsCons1. If you have guests travelling with you, they have to pass the bed &amp; the bedroom to reach the only bathroom - thus no privacy in the bedroom if guests are using the sofa sleeper.2. Parking lot gets full. I wish they had reserved parking in the front of apartment rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r340655668-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>340655668</t>
+  </si>
+  <si>
+    <t>01/17/2016</t>
+  </si>
+  <si>
+    <t>Wedding visit</t>
+  </si>
+  <si>
+    <t>We stayed in a 2 bedroom suite and everything was very nice.  The room was clean and comfortable, the staff was very friendly and the breakfast was good.  We were there for 2 nights and enjoyed our stay very much.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>We stayed in a 2 bedroom suite and everything was very nice.  The room was clean and comfortable, the staff was very friendly and the breakfast was good.  We were there for 2 nights and enjoyed our stay very much.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r334145396-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>334145396</t>
+  </si>
+  <si>
+    <t>12/20/2015</t>
+  </si>
+  <si>
+    <t>Davine front desk</t>
+  </si>
+  <si>
+    <t>he has a outgoing personality he does his job real well keep up the great work I will come back and stay at this motel I was blown away when I walked into my room it was awesome never seen a fire place in a motel I like that a lot I give this motel a 10 all the way if u are ever in this area I recommend you stay hereMoreShow less</t>
+  </si>
+  <si>
+    <t>he has a outgoing personality he does his job real well keep up the great work I will come back and stay at this motel I was blown away when I walked into my room it was awesome never seen a fire place in a motel I like that a lot I give this motel a 10 all the way if u are ever in this area I recommend you stay hereMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r332533223-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>332533223</t>
+  </si>
+  <si>
+    <t>12/13/2015</t>
+  </si>
+  <si>
+    <t>Sort stay</t>
+  </si>
+  <si>
+    <t>Stayed here for business.  Was fine if a little uninspiring, but breakfast was OK and plenty of free coffee.  Room was clean and only compliant was that there was no shampoo on arrival, but bed was comfortable.  Staff very helpful.Location is a little remote and you need a car.MoreShow less</t>
+  </si>
+  <si>
+    <t>Pebbles A, General Manager at Sonesta ES Suites Houston - NASA Clear Lake, responded to this reviewResponded December 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here for business.  Was fine if a little uninspiring, but breakfast was OK and plenty of free coffee.  Room was clean and only compliant was that there was no shampoo on arrival, but bed was comfortable.  Staff very helpful.Location is a little remote and you need a car.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r322800078-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>322800078</t>
+  </si>
+  <si>
+    <t>10/28/2015</t>
+  </si>
+  <si>
+    <t>Great stay for us......</t>
+  </si>
+  <si>
+    <t>Two couples staying two nights pre cruising out of Galveston.  We received a call the week before our arrival that for some reason they lost four of their two bedroom units, and asked us if we'd take two studios for our stay.  It worked out fine for us, the hotel is clean and the staff friendly with a good selection at breakfast time.  There are plenty of dining options around it, though you'll need a car unless a high end steakhouse is your choice.  We enjoyed talking with other guests while we were there.  Marriott products always deliver quality for us and we are loyal to them.  One thing here is the road construction all around, I heard the 45 has been worked on for 45 years.MoreShow less</t>
+  </si>
+  <si>
+    <t>Two couples staying two nights pre cruising out of Galveston.  We received a call the week before our arrival that for some reason they lost four of their two bedroom units, and asked us if we'd take two studios for our stay.  It worked out fine for us, the hotel is clean and the staff friendly with a good selection at breakfast time.  There are plenty of dining options around it, though you'll need a car unless a high end steakhouse is your choice.  We enjoyed talking with other guests while we were there.  Marriott products always deliver quality for us and we are loyal to them.  One thing here is the road construction all around, I heard the 45 has been worked on for 45 years.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r318428287-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>318428287</t>
+  </si>
+  <si>
+    <t>10/13/2015</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>While this is a nice hotel, you should be aware that the room doors are outside. I'm always a little scared to stay in hotels like this, but this one seemed to be in a safe area.  The breakfast was great (waffles, eggs, potatoes, etc.), and the staff is very accommodating and friendly. My only issue is there are only king and queen beds available.  With my group on this trip, we would have preferred two beds. Also, the bathrooms are very small.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r313379548-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>313379548</t>
+  </si>
+  <si>
+    <t>09/24/2015</t>
+  </si>
+  <si>
+    <t>Perfect location for our NASA visit!!!</t>
+  </si>
+  <si>
+    <t>This hotel is the perfect location for a NASA visit. It is located minutes from the Johnson Space Center (NASA). There is a variety of restaurants in the vicinity of the hotel; there's even a Starbucks within walking distance. Rooms are clean, staff was very friendly and courteous. Dining area was very clean and the dining manager very attentive and friendly. Food was very good; tasty and hot and there is a variety of cold items. Coffee was hot and flavorful. There is also a large barbeque pit and everything you need to barbeque some steaks or chicken; just like home, hence Residence Inn. Check-in was fast and check-out a breeze. We will return on our next trip to Houston. Thank you hotel staff for a great vacation experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>This hotel is the perfect location for a NASA visit. It is located minutes from the Johnson Space Center (NASA). There is a variety of restaurants in the vicinity of the hotel; there's even a Starbucks within walking distance. Rooms are clean, staff was very friendly and courteous. Dining area was very clean and the dining manager very attentive and friendly. Food was very good; tasty and hot and there is a variety of cold items. Coffee was hot and flavorful. There is also a large barbeque pit and everything you need to barbeque some steaks or chicken; just like home, hence Residence Inn. Check-in was fast and check-out a breeze. We will return on our next trip to Houston. Thank you hotel staff for a great vacation experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r306732257-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>306732257</t>
+  </si>
+  <si>
+    <t>09/03/2015</t>
+  </si>
+  <si>
+    <t>1 month business trip</t>
+  </si>
+  <si>
+    <t>Stayed here for about a month for a business trip with about 9 co workers. Hotel was nice, the free breakfast everyday was awesome. The cleaning staff was extremely helpful and efficient. The basketball court was a little small, but better than nothing. I would stay here again if in the area. The ac in my room was broken and the front staff was very accommodating and gave me a new room on the spot. Beverly was amazing and extremely helpful!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r301684106-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>301684106</t>
+  </si>
+  <si>
+    <t>08/20/2015</t>
+  </si>
+  <si>
+    <t>Travel with Husbands Job</t>
+  </si>
+  <si>
+    <t>We have been here for three weeks and have nothing but good to say!  The staff are so friendly.  The rooms are great!  I don't think any other hotel will live up to this one anytime soon.Good breakfast, beautiful pool, the layout of the hotel is so nice to walk around.  I have a Maltese and 11 year old and we felt at home taking a walk.  Close to restaurants and shopping.  Clean and neat.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r296880496-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>296880496</t>
+  </si>
+  <si>
+    <t>08/08/2015</t>
+  </si>
+  <si>
+    <t>Visiting family</t>
+  </si>
+  <si>
+    <t>We had a great stay at Residence Inn at Clear Lake. Since we had our 2 grandniece/nephew, we needed the 2 bedroom suite. It was more of condo since we had a private entry, 2 full bedrooms and 2 full bathrooms in addition to the full kitchen and living room. The kids loved it! They had their own area and we had ours. The pool was clean and refreshing while the tennis court was fun for two amateurs. And the breakfasts were much nicer than the typical hotel free breakfast. The selections covered most items in a restaurant. And, the staff was great. They were all very helpful and courteous. MoreShow less</t>
+  </si>
+  <si>
+    <t>We had a great stay at Residence Inn at Clear Lake. Since we had our 2 grandniece/nephew, we needed the 2 bedroom suite. It was more of condo since we had a private entry, 2 full bedrooms and 2 full bathrooms in addition to the full kitchen and living room. The kids loved it! They had their own area and we had ours. The pool was clean and refreshing while the tennis court was fun for two amateurs. And the breakfasts were much nicer than the typical hotel free breakfast. The selections covered most items in a restaurant. And, the staff was great. They were all very helpful and courteous. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r280648622-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>280648622</t>
+  </si>
+  <si>
+    <t>06/16/2015</t>
+  </si>
+  <si>
+    <t>Great location, excellent, friendly and helpful staff</t>
+  </si>
+  <si>
+    <t>My family and I took a road trip from Lancaster, PA to Houston, TX, and after driving through the night we arrived at Residence Inn Houston Clear Lake which was the first  stop on our trip.  After traveling for 25 hours straight, the welcome we received was a real joy.  Arriving at 9:30 AM they were able to have our room ready for (super) early check-in, and they held breakfast open for us so that we could catch a bite before going to our room.  We spent an hour or so at the pool (which the kids really loved) and then grabbed lunch and naps before spending the evening at the  Kemah Boardwalk.  The staff had great suggestions for what to do in the area (the Kemah boardwalk was their idea and it was an excellent one) and our kids remarked that it was 'the best Residence Inn ever' (and we've stayed at over a dozen across the country).   After checking out the next day we spent the day at NASA before heading into downtown Houston for the next stop on our trip.I would highly recommend this hotel, and if we have need to be in the area again, we'll certainly try to stay there.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>My family and I took a road trip from Lancaster, PA to Houston, TX, and after driving through the night we arrived at Residence Inn Houston Clear Lake which was the first  stop on our trip.  After traveling for 25 hours straight, the welcome we received was a real joy.  Arriving at 9:30 AM they were able to have our room ready for (super) early check-in, and they held breakfast open for us so that we could catch a bite before going to our room.  We spent an hour or so at the pool (which the kids really loved) and then grabbed lunch and naps before spending the evening at the  Kemah Boardwalk.  The staff had great suggestions for what to do in the area (the Kemah boardwalk was their idea and it was an excellent one) and our kids remarked that it was 'the best Residence Inn ever' (and we've stayed at over a dozen across the country).   After checking out the next day we spent the day at NASA before heading into downtown Houston for the next stop on our trip.I would highly recommend this hotel, and if we have need to be in the area again, we'll certainly try to stay there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r275297412-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>275297412</t>
+  </si>
+  <si>
+    <t>05/28/2015</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>My first stay in a residence inn and I really enjoyed it. Staff was friendly. Hot breakfast each morning was great. Rooms are big with kitchen in each room. Not an "upscale" hotel if that's what you prefer, but definitely clean, practical and more accommodating than most places. Excellent for families or extended stay. At this particular location there are lots of places to eat nearby. Would recommend this place if you are staying in this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Pebbles A, General Manager at Sonesta ES Suites Houston - NASA Clear Lake, responded to this reviewResponded May 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2015</t>
+  </si>
+  <si>
+    <t>My first stay in a residence inn and I really enjoyed it. Staff was friendly. Hot breakfast each morning was great. Rooms are big with kitchen in each room. Not an "upscale" hotel if that's what you prefer, but definitely clean, practical and more accommodating than most places. Excellent for families or extended stay. At this particular location there are lots of places to eat nearby. Would recommend this place if you are staying in this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r274800644-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>274800644</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memorial Day weekend gone wrong </t>
+  </si>
+  <si>
+    <t>This hotel should not be advertised on any booking sites. The customer service experience I had with this location was horrible. I had a booked reservation for well over a week. When I showed up on the date my reservation was scheduled, I was informed that my room had been given to an international party. What kind of establishment doesn't honor a reservation that was paid. I received no phone call prior to my arrival to inform me of the oversight. The experience was reprehensible. MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel should not be advertised on any booking sites. The customer service experience I had with this location was horrible. I had a booked reservation for well over a week. When I showed up on the date my reservation was scheduled, I was informed that my room had been given to an international party. What kind of establishment doesn't honor a reservation that was paid. I received no phone call prior to my arrival to inform me of the oversight. The experience was reprehensible. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r261117993-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>261117993</t>
+  </si>
+  <si>
+    <t>03/22/2015</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We had some issues with our room and the staff was quick to offer a generous rebate. They were very apologetic and we appreciated their excellent attitude toward customer service. Aside from that the breakfast was good the rooms were comfortable and the amenities were nice. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r260915389-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>260915389</t>
+  </si>
+  <si>
+    <t>03/21/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel for large families!</t>
+  </si>
+  <si>
+    <t>Just got back from a Spring Break Vacation at this hotel with my family of 5, which was mighty enjoyable thanks to Residence Inn Clear Lake Houston and their friendly staff. With 5 family members( my 2 boys are men-sized), it's often hard to find a big enough hotel to relax in during vacation. Residence Inn has a 2 room suite which worked perfectly for our family. There was enough room to stretch out in, and relax. There is a kitchen in case you decide to cook something, and a full size refrigerator and microwave, which we used often.  The pool and hot tub are inviting, and there is a half court basketball court for the kids. Above all, the staff were ALL super friendly and able to help with all our questions and requests. Especially helpful was Davin from the front desk, who works the evening shift and made us feel at home immediately. McDonald's and Starbucks are right next door, which the kids loved. Also, the hotel breakfast was wonderful and offered lots of healthy choices every day. I would definitely recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Just got back from a Spring Break Vacation at this hotel with my family of 5, which was mighty enjoyable thanks to Residence Inn Clear Lake Houston and their friendly staff. With 5 family members( my 2 boys are men-sized), it's often hard to find a big enough hotel to relax in during vacation. Residence Inn has a 2 room suite which worked perfectly for our family. There was enough room to stretch out in, and relax. There is a kitchen in case you decide to cook something, and a full size refrigerator and microwave, which we used often.  The pool and hot tub are inviting, and there is a half court basketball court for the kids. Above all, the staff were ALL super friendly and able to help with all our questions and requests. Especially helpful was Davin from the front desk, who works the evening shift and made us feel at home immediately. McDonald's and Starbucks are right next door, which the kids loved. Also, the hotel breakfast was wonderful and offered lots of healthy choices every day. I would definitely recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r240326837-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>240326837</t>
+  </si>
+  <si>
+    <t>11/17/2014</t>
+  </si>
+  <si>
+    <t>It was Awesome! !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Grandson JP had his Baseball Tournament in League City and this was an Amazing Hotel, Great Service,  Staff was Wonderful Baseball Team loved this place and will come back.  Also had a BBQ for the kids and they had a Great time playing Basketball . Thank you so much for a Amazing Stay at your Hotel.  Hope to see you all in March. :) SA Ambush Baseball Team Coach Pitch Came home with the Championship. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r235158675-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>235158675</t>
+  </si>
+  <si>
+    <t>10/19/2014</t>
+  </si>
+  <si>
+    <t>Thank You....</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay. Quiet, very nice and loved the birthday gift. My husband did good when he booked this place. The location was perfect to everything we decided to do.  The breakfast was on point with what we needed and the "common area" was neat and clean. I did my morning walk to notice that the grounds were clean and well maintained. Overall, we enjoyed our stay and will use this location again. Thanks again for a great stay. *********************************MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Pebbles A, General Manager at Sonesta ES Suites Houston - NASA Clear Lake, responded to this reviewResponded October 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2014</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay. Quiet, very nice and loved the birthday gift. My husband did good when he booked this place. The location was perfect to everything we decided to do.  The breakfast was on point with what we needed and the "common area" was neat and clean. I did my morning walk to notice that the grounds were clean and well maintained. Overall, we enjoyed our stay and will use this location again. Thanks again for a great stay. *********************************More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r228619601-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>228619601</t>
+  </si>
+  <si>
+    <t>09/13/2014</t>
+  </si>
+  <si>
+    <t>Best Weekend Choice</t>
+  </si>
+  <si>
+    <t>Marriott Residence Inns make for great weekend escapes.  Rooms was big,clean, and affordable. In true Marriott tradition, breakfast was great. Grandkids loved the pool.  Great lobby and outdoor seating!  Had a great weekend.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Marriott Residence Inns make for great weekend escapes.  Rooms was big,clean, and affordable. In true Marriott tradition, breakfast was great. Grandkids loved the pool.  Great lobby and outdoor seating!  Had a great weekend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r228259316-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>228259316</t>
+  </si>
+  <si>
+    <t>09/11/2014</t>
+  </si>
+  <si>
+    <t>Roach Motel</t>
+  </si>
+  <si>
+    <t>While the location is quite convenient if you have business by the ship channel, this hotel had at least 4 cockroaches in my room that I have just discovered this morning.  The pool area had a bunch of drunk people last night, making a lot of noise through 11pm.  I had to turn on the television so that I could generate some "white noise" and go to sleep.  Some pretty basic stuff that I would expect a Marriott property to take care off.  Was supposed to stay here two nights, I will be checking out this morning!MoreShow less</t>
+  </si>
+  <si>
+    <t>Pebbles A, General Manager at Sonesta ES Suites Houston - NASA Clear Lake, responded to this reviewResponded September 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2014</t>
+  </si>
+  <si>
+    <t>While the location is quite convenient if you have business by the ship channel, this hotel had at least 4 cockroaches in my room that I have just discovered this morning.  The pool area had a bunch of drunk people last night, making a lot of noise through 11pm.  I had to turn on the television so that I could generate some "white noise" and go to sleep.  Some pretty basic stuff that I would expect a Marriott property to take care off.  Was supposed to stay here two nights, I will be checking out this morning!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r221161756-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>221161756</t>
+  </si>
+  <si>
+    <t>08/11/2014</t>
+  </si>
+  <si>
+    <t>WONDERFUL Hotel!</t>
+  </si>
+  <si>
+    <t>Wonderful Hotel!  HOT Breakfast (delicious!) and "Manager's Special" 3 nights a week.  The rooms were GREAT!  We also loved the full kitchen.  The staff extremely helpful.  We would go back tomorrow if we could.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r215791468-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>215791468</t>
+  </si>
+  <si>
+    <t>07/16/2014</t>
+  </si>
+  <si>
+    <t>Really great</t>
+  </si>
+  <si>
+    <t>Very very helpful people at the front desk, especially Matt. Did everything to make my child's stay there as comfortable and easy as possible, very nice room, clean, wonderful bed, my child will not stay anywhere else, when visiting the US again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r210735079-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>210735079</t>
+  </si>
+  <si>
+    <t>06/17/2014</t>
+  </si>
+  <si>
+    <t>2 Night Stay</t>
+  </si>
+  <si>
+    <t>We stayed here for a weekend high school graduation.  It was conveniently located and everything we could have wanted.  We had 2 rooms across from each other in the main building.  We never heard any hallway noise that usually disturbs us.  The rooms were like an apartment with everything you could need.  We utilized the full size fridge and microwave for some meals we brought with us.  The full breakfast included was really nice and the coffee and hot chocolate in the lobby was appreciated too.  Everyone on staff was extremely helpful and nice.  It was a very pleasant stay and would stay here again in a minute.  They had a nice pool area but we did not visit it.  Next door was a McDonalds and Starbucks.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>We stayed here for a weekend high school graduation.  It was conveniently located and everything we could have wanted.  We had 2 rooms across from each other in the main building.  We never heard any hallway noise that usually disturbs us.  The rooms were like an apartment with everything you could need.  We utilized the full size fridge and microwave for some meals we brought with us.  The full breakfast included was really nice and the coffee and hot chocolate in the lobby was appreciated too.  Everyone on staff was extremely helpful and nice.  It was a very pleasant stay and would stay here again in a minute.  They had a nice pool area but we did not visit it.  Next door was a McDonalds and Starbucks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r187227841-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>187227841</t>
+  </si>
+  <si>
+    <t>12/09/2013</t>
+  </si>
+  <si>
+    <t>GREAT PLACE TO STAY</t>
+  </si>
+  <si>
+    <t>Our family stayed there for a month. The staffs there treated us like family! The room's clean and the facilities are new. We do feel happy to live there! Our 2 years old daughter still misses the hotel. BTW, it close to everything!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Matt H, Non Management at Sonesta ES Suites Houston - NASA Clear Lake, responded to this reviewResponded February 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2014</t>
+  </si>
+  <si>
+    <t>Our family stayed there for a month. The staffs there treated us like family! The room's clean and the facilities are new. We do feel happy to live there! Our 2 years old daughter still misses the hotel. BTW, it close to everything!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r183592375-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>183592375</t>
+  </si>
+  <si>
+    <t>11/04/2013</t>
+  </si>
+  <si>
+    <t>Happily Impressed</t>
+  </si>
+  <si>
+    <t>We stay at Marriott often, but we've never stayed at a Residence Inn and we were very impressed.  Star was very nice and helpful, even though there was a line of customers and she kept answering the phone an helping them too.  The lobby was very clean and a great place to relax if anyone wanted a break from their room.  We had a king size bed in a studio room and we loved it!  I hated that we stayed there only 1 night.  The room was so cozy, with a warm red/brown color scheme.  The living area was very comfortable; even included an ottoman to put your feet up.  The bed and sheets were incredible... so soft.  I like my pillows firm, and these pillows were very soft, but they were clean and smelled fresh. The closet was big, as was the bathroom.  The kitchen area was fantastic; we only used the bar area to eat breakfast and the full-size fridge to keep our drinks cold, but it was all well decorated and situated.  My husband went to get us breakfast and came back with a feast for us: sausage, eggs, English muffin, fruit medley, and juice.  There was also a nice sitting area near the pool, which we enjoyed with a drink.  The only we didn't like is that the dark, red curtains don't cover the very edges of the windows (the white curtains cover the whole window),...We stay at Marriott often, but we've never stayed at a Residence Inn and we were very impressed.  Star was very nice and helpful, even though there was a line of customers and she kept answering the phone an helping them too.  The lobby was very clean and a great place to relax if anyone wanted a break from their room.  We had a king size bed in a studio room and we loved it!  I hated that we stayed there only 1 night.  The room was so cozy, with a warm red/brown color scheme.  The living area was very comfortable; even included an ottoman to put your feet up.  The bed and sheets were incredible... so soft.  I like my pillows firm, and these pillows were very soft, but they were clean and smelled fresh. The closet was big, as was the bathroom.  The kitchen area was fantastic; we only used the bar area to eat breakfast and the full-size fridge to keep our drinks cold, but it was all well decorated and situated.  My husband went to get us breakfast and came back with a feast for us: sausage, eggs, English muffin, fruit medley, and juice.  There was also a nice sitting area near the pool, which we enjoyed with a drink.  The only we didn't like is that the dark, red curtains don't cover the very edges of the windows (the white curtains cover the whole window), so the sun was pouring into the room at 7:15am when we were trying to sleep.  Other than that, we will definitely stay at this Residence Inn when we are in the area again!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Matt H, Front Desk Agent at Sonesta ES Suites Houston - NASA Clear Lake, responded to this reviewResponded February 4, 2014</t>
+  </si>
+  <si>
+    <t>We stay at Marriott often, but we've never stayed at a Residence Inn and we were very impressed.  Star was very nice and helpful, even though there was a line of customers and she kept answering the phone an helping them too.  The lobby was very clean and a great place to relax if anyone wanted a break from their room.  We had a king size bed in a studio room and we loved it!  I hated that we stayed there only 1 night.  The room was so cozy, with a warm red/brown color scheme.  The living area was very comfortable; even included an ottoman to put your feet up.  The bed and sheets were incredible... so soft.  I like my pillows firm, and these pillows were very soft, but they were clean and smelled fresh. The closet was big, as was the bathroom.  The kitchen area was fantastic; we only used the bar area to eat breakfast and the full-size fridge to keep our drinks cold, but it was all well decorated and situated.  My husband went to get us breakfast and came back with a feast for us: sausage, eggs, English muffin, fruit medley, and juice.  There was also a nice sitting area near the pool, which we enjoyed with a drink.  The only we didn't like is that the dark, red curtains don't cover the very edges of the windows (the white curtains cover the whole window),...We stay at Marriott often, but we've never stayed at a Residence Inn and we were very impressed.  Star was very nice and helpful, even though there was a line of customers and she kept answering the phone an helping them too.  The lobby was very clean and a great place to relax if anyone wanted a break from their room.  We had a king size bed in a studio room and we loved it!  I hated that we stayed there only 1 night.  The room was so cozy, with a warm red/brown color scheme.  The living area was very comfortable; even included an ottoman to put your feet up.  The bed and sheets were incredible... so soft.  I like my pillows firm, and these pillows were very soft, but they were clean and smelled fresh. The closet was big, as was the bathroom.  The kitchen area was fantastic; we only used the bar area to eat breakfast and the full-size fridge to keep our drinks cold, but it was all well decorated and situated.  My husband went to get us breakfast and came back with a feast for us: sausage, eggs, English muffin, fruit medley, and juice.  There was also a nice sitting area near the pool, which we enjoyed with a drink.  The only we didn't like is that the dark, red curtains don't cover the very edges of the windows (the white curtains cover the whole window), so the sun was pouring into the room at 7:15am when we were trying to sleep.  Other than that, we will definitely stay at this Residence Inn when we are in the area again!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r182848200-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>182848200</t>
+  </si>
+  <si>
+    <t>10/29/2013</t>
+  </si>
+  <si>
+    <t>Great Property, Nice Room and Friendly Staff</t>
+  </si>
+  <si>
+    <t>This property is the picture of perfection.  The room was clean, very nicely equipped and comfortable.  The bed was top quality as were the linens.  The front desk staff member that checked me was amazing.  She had me laughing and really looking forward to my stay at the property. I would definitely recommend this property to anyone!</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r171541839-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>171541839</t>
+  </si>
+  <si>
+    <t>08/09/2013</t>
+  </si>
+  <si>
+    <t>Well-Kept, Clean, Friendly Staff - Nice Layout for Studios</t>
+  </si>
+  <si>
+    <t>We recently stayed here 2 nights in a studio and the room was spacious and very clean.  The hotel was not indoor corridors, but where we stayed were only 4 rooms/options per floor.  It seemed to be more set up like a true apartment, but was quiet for the most part.  The interior design looked to have been fully renovated in the last 2-3 years, or sooner.  The room was very nice and spacious.We've stayed here once previously many years ago, and this experience was just as good.  I would only say that the breakfast wasn't quite up to par with most Residence Inns that are 5 star options.  It was good/average, but the eggs seemed runny/powdery at the same time (if that makes sense) and very little options/change from the 2 days that we were there.  Again, it was good/average, but one of the reasons I kept from giving this a 5.Location to Galveston, NASA, Kemah is awesome.  Starbucks is literally in front of the hotel as well as McDonalds.  There is a Krogers grocery about 7-8 blocks away for essentials.  Recommend day/light trips for single females after 8/9pm.  Very well maintained and mostly safe neighborhood with tons of entertainment, shopping, and eating options within 5-25 miles.  Solid 4 stars, an uptick in their breakfast would make them 4.5-5 stars.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Matthew_Hartman, Non-Management at Sonesta ES Suites Houston - NASA Clear Lake, responded to this reviewResponded August 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2013</t>
+  </si>
+  <si>
+    <t>We recently stayed here 2 nights in a studio and the room was spacious and very clean.  The hotel was not indoor corridors, but where we stayed were only 4 rooms/options per floor.  It seemed to be more set up like a true apartment, but was quiet for the most part.  The interior design looked to have been fully renovated in the last 2-3 years, or sooner.  The room was very nice and spacious.We've stayed here once previously many years ago, and this experience was just as good.  I would only say that the breakfast wasn't quite up to par with most Residence Inns that are 5 star options.  It was good/average, but the eggs seemed runny/powdery at the same time (if that makes sense) and very little options/change from the 2 days that we were there.  Again, it was good/average, but one of the reasons I kept from giving this a 5.Location to Galveston, NASA, Kemah is awesome.  Starbucks is literally in front of the hotel as well as McDonalds.  There is a Krogers grocery about 7-8 blocks away for essentials.  Recommend day/light trips for single females after 8/9pm.  Very well maintained and mostly safe neighborhood with tons of entertainment, shopping, and eating options within 5-25 miles.  Solid 4 stars, an uptick in their breakfast would make them 4.5-5 stars.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r155461638-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155461638</t>
+  </si>
+  <si>
+    <t>03/23/2013</t>
+  </si>
+  <si>
+    <t>Very nice stay</t>
+  </si>
+  <si>
+    <t>Stayed one night here in a 2-bdrm.  All 3 elementary age kids fit perfectly in the king bed, so we didn't need the pullout.  Staff was very friendly &amp; has great proximity to Starbucks, McDonalds, &amp; Einstein Bros.  Only complaint was the breakfast.  Was about 30 other guests trying to get breakfast as well, &amp; the one employee couldn't keep up with the demand.  Rate was a bit high, but we enjoyed the larger room.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r154090689-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154090689</t>
+  </si>
+  <si>
+    <t>03/09/2013</t>
+  </si>
+  <si>
+    <t>Just Like Home</t>
+  </si>
+  <si>
+    <t>I spent 11 days at this Inn and had a great time. The rooms were very clean and well maintained. I stayed in a studio for my first part of my stay and then moved to a 2 bedroom suite and found both to be well stocked for all my needs. The staff was totally accommodating and helpful. The morning breakfasts were delicious and well presented. I really couldn't have found a more enjoyable place to stay.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r142740818-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>142740818</t>
+  </si>
+  <si>
+    <t>10/13/2012</t>
+  </si>
+  <si>
+    <t>same problems on 2nd stay, the place just isnt clean</t>
+  </si>
+  <si>
+    <t>Pros:- location affords access to every type retail, restaurant and entertainment imaginable (Sbux immediately next door was great)- laundry on-site- offers a 2-bed, 2-bath suite- able to park right outside your roomNegatives:- place was disgusting &amp; seemed as if it hadn't been cleaned ... spots of blood on the sheet and wall, kitchen counter was filthy, bathroom was cleaned- daily cleaning service wasn't very good either really improve- rooms were a bit small (2bed, 2bath seemed less than 700 sqft)I am a Marriott Platinum member &amp; stayed with Marriott for 15 years, and have never seen anything like this ... Dear Marriott, please investigate !!!  so you</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r141429055-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>141429055</t>
+  </si>
+  <si>
+    <t>09/27/2012</t>
+  </si>
+  <si>
+    <t>I'm a repeat customer here!</t>
+  </si>
+  <si>
+    <t>I've stayed here a few times over 2011-2012.The one negative experience was a one time situation involving a complicated refund. It all worked out in the end but it was pretty labor intensive to resolve.Apart from that my day to day experience at the hotel has been great. Very presentable attractive rooms, nice facility w/pool-jacuzzi. Gym is undergoing renovation and the worn elliptical machines are being replaced. Good breakfast, cheery service, located close to restaurants nearby and  Johnson space center is a close drive.I'm looking forward to my next stay here!MoreShow less</t>
+  </si>
+  <si>
+    <t>Ellen H, Sales Coordinator at Sonesta ES Suites Houston - NASA Clear Lake, responded to this reviewResponded October 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2012</t>
+  </si>
+  <si>
+    <t>I've stayed here a few times over 2011-2012.The one negative experience was a one time situation involving a complicated refund. It all worked out in the end but it was pretty labor intensive to resolve.Apart from that my day to day experience at the hotel has been great. Very presentable attractive rooms, nice facility w/pool-jacuzzi. Gym is undergoing renovation and the worn elliptical machines are being replaced. Good breakfast, cheery service, located close to restaurants nearby and  Johnson space center is a close drive.I'm looking forward to my next stay here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r140246526-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>140246526</t>
+  </si>
+  <si>
+    <t>09/14/2012</t>
+  </si>
+  <si>
+    <t>Very Nice</t>
+  </si>
+  <si>
+    <t>I was looking for a hotel that would serve my needs for an extended stay.  I found that in the The Residence Inn. The hotel was newly renovated and extremely clean.  The staff is helpful and friendly. Its nice to stay where they know your naMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Ellen H, Sales Coordinator at Sonesta ES Suites Houston - NASA Clear Lake, responded to this reviewResponded September 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2012</t>
+  </si>
+  <si>
+    <t>I was looking for a hotel that would serve my needs for an extended stay.  I found that in the The Residence Inn. The hotel was newly renovated and extremely clean.  The staff is helpful and friendly. Its nice to stay where they know your naMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r132721673-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132721673</t>
+  </si>
+  <si>
+    <t>06/25/2012</t>
+  </si>
+  <si>
+    <t>My first choice in the area</t>
+  </si>
+  <si>
+    <t>Tried it and kept it for subsequent travel. I usually try to have a room on 1st floor, not ground floor (to reduce the noise of A/C if you are unlucky). Besides: breakfast, pool, free snack in the early evening, .. all great!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>Ellen H, Sales Coordinator at Sonesta ES Suites Houston - NASA Clear Lake, responded to this reviewResponded August 13, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2012</t>
+  </si>
+  <si>
+    <t>Tried it and kept it for subsequent travel. I usually try to have a room on 1st floor, not ground floor (to reduce the noise of A/C if you are unlucky). Besides: breakfast, pool, free snack in the early evening, .. all great!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r132095530-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132095530</t>
+  </si>
+  <si>
+    <t>06/16/2012</t>
+  </si>
+  <si>
+    <t>Very nice stay convenient to most places</t>
+  </si>
+  <si>
+    <t>One week stay in a studio which was plenty of room.  Full kitchen provided opportunity to avoid eating out every meal.  Bathroom was small but at least the sink area was separate making it much better.  Comfortable bed and furniture.  Nice pool area and lobby area.  Breakfast varied from day to day but Texas shaped waffles always can be made.  Did not enjoy the hot items on two of seven days but enough other items to make do.  The most impressive thing was the responsiveness of the front desk when we checked in.  We arrived early before check-in time and a room was available.  However, it was in building 18 which was quite a walk and my wife could not physically make the walk.  We called the front desk and within ten minutes we had a new room assignment in building eleven almost next to the pool and lobby.  Went to Kemah one night and it was a short drive.  Passed the space center on the way.  Mall, restaurants all nearby.  McDonald's, Starbuck's and Perry's Steakhouse all walkable from the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>One week stay in a studio which was plenty of room.  Full kitchen provided opportunity to avoid eating out every meal.  Bathroom was small but at least the sink area was separate making it much better.  Comfortable bed and furniture.  Nice pool area and lobby area.  Breakfast varied from day to day but Texas shaped waffles always can be made.  Did not enjoy the hot items on two of seven days but enough other items to make do.  The most impressive thing was the responsiveness of the front desk when we checked in.  We arrived early before check-in time and a room was available.  However, it was in building 18 which was quite a walk and my wife could not physically make the walk.  We called the front desk and within ten minutes we had a new room assignment in building eleven almost next to the pool and lobby.  Went to Kemah one night and it was a short drive.  Passed the space center on the way.  Mall, restaurants all nearby.  McDonald's, Starbuck's and Perry's Steakhouse all walkable from the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r131402589-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>131402589</t>
+  </si>
+  <si>
+    <t>06/06/2012</t>
+  </si>
+  <si>
+    <t>nice hotel for family</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights on a great priceline deal.  My kids, ages 6 and 8, loved the pool and basketball court.  Breakfast was good -- many choices.  Starbucks was next door -- a plus.  Rooms were recently redone -- great job.  We had a studio with king bed and pull out sofa.  It was nice have a breakfast bar area and full fridge.  Everything was very clean and the staff were very helpfulMoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights on a great priceline deal.  My kids, ages 6 and 8, loved the pool and basketball court.  Breakfast was good -- many choices.  Starbucks was next door -- a plus.  Rooms were recently redone -- great job.  We had a studio with king bed and pull out sofa.  It was nice have a breakfast bar area and full fridge.  Everything was very clean and the staff were very helpfulMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r128420039-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>128420039</t>
+  </si>
+  <si>
+    <t>04/23/2012</t>
+  </si>
+  <si>
+    <t>acceptable. would stay again.</t>
+  </si>
+  <si>
+    <t>We stayed in a one-bedroom suite for three nights. We chose this location for proximity to Galveston, NASA, and Houston sites - it was a good location for our needs, with plenty of convenient stores (HEB, Target, mall).The remodel work is nice. The kitchen was the best feature of our room. The bathroom was just okay, I don't think they did much, if anything, to renovate there. I found the bed too soft in the middle (another reviewer said it was too firm, so maybe some rooms have newer mattresses?) but the linens were good. We didn't use the pool or sport court, but they looked great for kids. I think the rooms around the pool are the nicer location than our room facing mcdonald's, but I'll glad we weren't near the pool because I saw a couple dozen beer bottles around the pool in the morning and wondered if those rooms may have been noisy. Even in our location, the windows need replacing, and we did wake up to the dumster pick up (early am) and a train in the middle of the night.Breakfast was acceptable quality and included a variety of options (cereal, eggs, sausage, waffles, biscuits/gravy, breakfast burritos, packaged donuts/muffins/bagels).I have no significant complaints about this hotel, but it wasn't exceptional. I would probably stay there again if the rate was right.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>We stayed in a one-bedroom suite for three nights. We chose this location for proximity to Galveston, NASA, and Houston sites - it was a good location for our needs, with plenty of convenient stores (HEB, Target, mall).The remodel work is nice. The kitchen was the best feature of our room. The bathroom was just okay, I don't think they did much, if anything, to renovate there. I found the bed too soft in the middle (another reviewer said it was too firm, so maybe some rooms have newer mattresses?) but the linens were good. We didn't use the pool or sport court, but they looked great for kids. I think the rooms around the pool are the nicer location than our room facing mcdonald's, but I'll glad we weren't near the pool because I saw a couple dozen beer bottles around the pool in the morning and wondered if those rooms may have been noisy. Even in our location, the windows need replacing, and we did wake up to the dumster pick up (early am) and a train in the middle of the night.Breakfast was acceptable quality and included a variety of options (cereal, eggs, sausage, waffles, biscuits/gravy, breakfast burritos, packaged donuts/muffins/bagels).I have no significant complaints about this hotel, but it wasn't exceptional. I would probably stay there again if the rate was right.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r128302913-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>128302913</t>
+  </si>
+  <si>
+    <t>04/21/2012</t>
+  </si>
+  <si>
+    <t>Just okay</t>
+  </si>
+  <si>
+    <t>My wife and children loved this hotel. Considering that our children got their own beds, we had two bathrooms, a full kitchen, and there was plenty of space for everyone, that was to be expected. 
+Sleep quality was pretty good. Not the most comfortable beds I've ever slept in (I prefer a somewhat softer mattress) but I managed to get plenty of rest nevertheless. 
+The pool and spa are pretty nice. They're not terribly large, but they're clean and great for a refreshing dip. They didn't appear to be heated, which would have been nice since the weather in the Clear Lake area was a little cool during our stay.
+The free breakfast is good. Every day there was a selection of hot and cold foods, waffles, breads, juices, fruit, cereal and coffee. On two of the mornings, there were flour tortillas for turning the eggs, sausage, cheese and potatoes into a breakfast burrito if we wished. It was a nice touch.
+The rooms were clean, but on three consecutive days, we did not get maid service. We were still in the rooms when housekeeping came around about mid-morning and were not ready to leave for the day. Consequently, we were forced to call the front desk to get fresh towels in the evenings. We informed the desk clerks each time we hadn't received service, and only on the first night was a housekeeper available to make up our room....My wife and children loved this hotel. Considering that our children got their own beds, we had two bathrooms, a full kitchen, and there was plenty of space for everyone, that was to be expected. Sleep quality was pretty good. Not the most comfortable beds I've ever slept in (I prefer a somewhat softer mattress) but I managed to get plenty of rest nevertheless. The pool and spa are pretty nice. They're not terribly large, but they're clean and great for a refreshing dip. They didn't appear to be heated, which would have been nice since the weather in the Clear Lake area was a little cool during our stay.The free breakfast is good. Every day there was a selection of hot and cold foods, waffles, breads, juices, fruit, cereal and coffee. On two of the mornings, there were flour tortillas for turning the eggs, sausage, cheese and potatoes into a breakfast burrito if we wished. It was a nice touch.The rooms were clean, but on three consecutive days, we did not get maid service. We were still in the rooms when housekeeping came around about mid-morning and were not ready to leave for the day. Consequently, we were forced to call the front desk to get fresh towels in the evenings. We informed the desk clerks each time we hadn't received service, and only on the first night was a housekeeper available to make up our room. Coming back to an unmade room three times in a row was a big disappointment. The other big disappointment was the fitness center. It is small and the equipment is old and not well maintained. The eliptical machine is downright dangerous. The pedals are misaligned, causing a user to make a "skipping" motion that puts uneven stress on hip joints. The imbalance is so bad that the fly wheel at the front of the machine wobbles severely. The whole room needs a major upgrade, and quickly.Finally, there is a Starbucks within 100 feet of the hotel lobby when you really need your fix, and it shares a parking lot with the hotel. I'm a caffeine addict, so that was very welcome!MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and children loved this hotel. Considering that our children got their own beds, we had two bathrooms, a full kitchen, and there was plenty of space for everyone, that was to be expected. 
+Sleep quality was pretty good. Not the most comfortable beds I've ever slept in (I prefer a somewhat softer mattress) but I managed to get plenty of rest nevertheless. 
+The pool and spa are pretty nice. They're not terribly large, but they're clean and great for a refreshing dip. They didn't appear to be heated, which would have been nice since the weather in the Clear Lake area was a little cool during our stay.
+The free breakfast is good. Every day there was a selection of hot and cold foods, waffles, breads, juices, fruit, cereal and coffee. On two of the mornings, there were flour tortillas for turning the eggs, sausage, cheese and potatoes into a breakfast burrito if we wished. It was a nice touch.
+The rooms were clean, but on three consecutive days, we did not get maid service. We were still in the rooms when housekeeping came around about mid-morning and were not ready to leave for the day. Consequently, we were forced to call the front desk to get fresh towels in the evenings. We informed the desk clerks each time we hadn't received service, and only on the first night was a housekeeper available to make up our room....My wife and children loved this hotel. Considering that our children got their own beds, we had two bathrooms, a full kitchen, and there was plenty of space for everyone, that was to be expected. Sleep quality was pretty good. Not the most comfortable beds I've ever slept in (I prefer a somewhat softer mattress) but I managed to get plenty of rest nevertheless. The pool and spa are pretty nice. They're not terribly large, but they're clean and great for a refreshing dip. They didn't appear to be heated, which would have been nice since the weather in the Clear Lake area was a little cool during our stay.The free breakfast is good. Every day there was a selection of hot and cold foods, waffles, breads, juices, fruit, cereal and coffee. On two of the mornings, there were flour tortillas for turning the eggs, sausage, cheese and potatoes into a breakfast burrito if we wished. It was a nice touch.The rooms were clean, but on three consecutive days, we did not get maid service. We were still in the rooms when housekeeping came around about mid-morning and were not ready to leave for the day. Consequently, we were forced to call the front desk to get fresh towels in the evenings. We informed the desk clerks each time we hadn't received service, and only on the first night was a housekeeper available to make up our room. Coming back to an unmade room three times in a row was a big disappointment. The other big disappointment was the fitness center. It is small and the equipment is old and not well maintained. The eliptical machine is downright dangerous. The pedals are misaligned, causing a user to make a "skipping" motion that puts uneven stress on hip joints. The imbalance is so bad that the fly wheel at the front of the machine wobbles severely. The whole room needs a major upgrade, and quickly.Finally, there is a Starbucks within 100 feet of the hotel lobby when you really need your fix, and it shares a parking lot with the hotel. I'm a caffeine addict, so that was very welcome!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r128123375-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>128123375</t>
+  </si>
+  <si>
+    <t>04/18/2012</t>
+  </si>
+  <si>
+    <t>Great place.  Good location.</t>
+  </si>
+  <si>
+    <t>The room was very clean and everything was in working order.  TVs in every room.  Close to many restaurants, shopping, and downtown.  The full breakfast was very good with eggs, sausage, fruits, muffins, etc.  Friendly staff, easy check-in, and check-out.  Will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>VickyM33, General Manager at Sonesta ES Suites Houston - NASA Clear Lake, responded to this reviewResponded April 22, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2012</t>
+  </si>
+  <si>
+    <t>The room was very clean and everything was in working order.  TVs in every room.  Close to many restaurants, shopping, and downtown.  The full breakfast was very good with eggs, sausage, fruits, muffins, etc.  Friendly staff, easy check-in, and check-out.  Will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r125744412-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>125744412</t>
+  </si>
+  <si>
+    <t>03/07/2012</t>
+  </si>
+  <si>
+    <t>Looks like they have pretty much completed the upgrades.  Nice fresh appearance, comfortable bed, good breakfast assortment.  One negative - it appears that the evening refreshments are not provided past Wednesday.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>VickyM33, General Manager at Sonesta ES Suites Houston - NASA Clear Lake, responded to this reviewResponded March 8, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2012</t>
+  </si>
+  <si>
+    <t>Looks like they have pretty much completed the upgrades.  Nice fresh appearance, comfortable bed, good breakfast assortment.  One negative - it appears that the evening refreshments are not provided past Wednesday.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r118339504-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>118339504</t>
+  </si>
+  <si>
+    <t>09/19/2011</t>
+  </si>
+  <si>
+    <t>Great update</t>
+  </si>
+  <si>
+    <t>I've stayed in this hotel several times because it is close to NASA. The hotel was getting dated but the renovations have made a big difference (close to being finished). I’ve always liked the staff at the desk and especially the friendly ladies with the breakfast but this visit is even better.  I think they feel some pride in the updates. If you can get an upstairs room it is nice and quiet (previously downstairs I’ve heard people walking around). My group is definitely disappointed if the hotel is full. Very close to Perry’s restaurant, a bit pricey but always good food. Other restaurants can be walked too but Houston is not your most pedestrian friendly place! Wired internet is very good but they say they are going wireless soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>I've stayed in this hotel several times because it is close to NASA. The hotel was getting dated but the renovations have made a big difference (close to being finished). I’ve always liked the staff at the desk and especially the friendly ladies with the breakfast but this visit is even better.  I think they feel some pride in the updates. If you can get an upstairs room it is nice and quiet (previously downstairs I’ve heard people walking around). My group is definitely disappointed if the hotel is full. Very close to Perry’s restaurant, a bit pricey but always good food. Other restaurants can be walked too but Houston is not your most pedestrian friendly place! Wired internet is very good but they say they are going wireless soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r117474707-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>117474707</t>
+  </si>
+  <si>
+    <t>08/30/2011</t>
+  </si>
+  <si>
+    <t>Comfortable and clean</t>
+  </si>
+  <si>
+    <t>Friendly with great service.Excellent front desk service.Knowledgable staff.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r106948389-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>106948389</t>
+  </si>
+  <si>
+    <t>05/05/2011</t>
+  </si>
+  <si>
+    <t>Average Motel</t>
+  </si>
+  <si>
+    <t>A little disappointed. when we arrived we were informed that renovations had started at the motel. Would have really liked to have been informed of this prior to arriving so we had a choice as to if we still wanted to stay there. We looked out our window at a skip bin and there was no gym equipment as advertised due to the renovations.On a brighter note, the young lady cooking breakfast was lovely.</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r56523308-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56523308</t>
+  </si>
+  <si>
+    <t>02/19/2010</t>
+  </si>
+  <si>
+    <t>No Complaints from our stay</t>
+  </si>
+  <si>
+    <t>My husband and I just returned from staying at this hotel. I really don't know what people are complaining about. I thought it was very nice and an exceptional value using Priceline. Our room was made up each day, items were replaced ie coffee packets and tea bags, there was a glass container of wrapped hard candy and the towels were artistically folded each day. It was clean . Sure, it wasn't brand new but it was very nice. The free buffets were unbelievable and generous. Lots of families with small children and many business travelers that were graciously greeted by name by the staff. The outdoor pool was heated even though it was way too cold to use it. The grounds were lovely and well maintained. It is situated in a residential area and it couldn't have been more quiet. I am a very poor sleeper and I slept great here. Please don't be mislead by some of the negatives reviews I would go back again. Also, it is located in a great area to NASA and also a huge shopping center.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>My husband and I just returned from staying at this hotel. I really don't know what people are complaining about. I thought it was very nice and an exceptional value using Priceline. Our room was made up each day, items were replaced ie coffee packets and tea bags, there was a glass container of wrapped hard candy and the towels were artistically folded each day. It was clean . Sure, it wasn't brand new but it was very nice. The free buffets were unbelievable and generous. Lots of families with small children and many business travelers that were graciously greeted by name by the staff. The outdoor pool was heated even though it was way too cold to use it. The grounds were lovely and well maintained. It is situated in a residential area and it couldn't have been more quiet. I am a very poor sleeper and I slept great here. Please don't be mislead by some of the negatives reviews I would go back again. Also, it is located in a great area to NASA and also a huge shopping center.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r46807243-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>46807243</t>
+  </si>
+  <si>
+    <t>10/13/2009</t>
+  </si>
+  <si>
+    <t>Horrible housekeeping!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>We arrived to find trash in the bathroom trash can and pajamas left hanging on the back of the bathroom door! This was AFTER the room had been cleaned for our arrival. Also, my husband is a platinum member of their frequent guest program and, as such, is entitled to a room upgrade. When he requested the upgrade, he was told that there weren't any better rooms available because they weren't cleaned. FYI: We arrived around 5 pm. When were they going to clean the rooms? And why didn't they prepare an upgraded room, knowing that a platinum member was arriving? Our reservation was made months in advance.</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r32062535-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>32062535</t>
+  </si>
+  <si>
+    <t>06/10/2009</t>
+  </si>
+  <si>
+    <t>Disappointment</t>
+  </si>
+  <si>
+    <t>We had planned to stay two nights at this hotel, but it was in terrible shape so we only stayed one. Our bathroon ceiling was peeling  and ready to fall, the outside lights were not working and overall in bad shape needing a serious face lift.</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r28389164-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>28389164</t>
+  </si>
+  <si>
+    <t>04/20/2009</t>
+  </si>
+  <si>
+    <t>Great Staff But Needs Renovation</t>
+  </si>
+  <si>
+    <t>My family and I stayed for one evening.  The staff was very friendly and efficient, and its location is excellent.  It's close to major restaurants and shopping.  The Univ of Houston-Clear Lake is about 2.5 miles away.  However, this hotel has become rundown and is in major need of updating.  The rooms require painting, the carpets are worn, the bathroom fixtures are dated and not especially clean.  Our room smelled musty and felt damp.   The televisions did not work correctly and the DVD player did not work at all.  Overall, there were many items that required repair and fixing--it was just tired and rundown.  For what you get, the value is very bad.  I would recommend looking at other, similiar hotels nearby such as Marriott Town Place Suites and Homewood Suites.  If the prices are comparable, definitley recommend consider those places first.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2009</t>
+  </si>
+  <si>
+    <t>My family and I stayed for one evening.  The staff was very friendly and efficient, and its location is excellent.  It's close to major restaurants and shopping.  The Univ of Houston-Clear Lake is about 2.5 miles away.  However, this hotel has become rundown and is in major need of updating.  The rooms require painting, the carpets are worn, the bathroom fixtures are dated and not especially clean.  Our room smelled musty and felt damp.   The televisions did not work correctly and the DVD player did not work at all.  Overall, there were many items that required repair and fixing--it was just tired and rundown.  For what you get, the value is very bad.  I would recommend looking at other, similiar hotels nearby such as Marriott Town Place Suites and Homewood Suites.  If the prices are comparable, definitley recommend consider those places first.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r21143736-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>21143736</t>
+  </si>
+  <si>
+    <t>10/23/2008</t>
+  </si>
+  <si>
+    <t>This place should be bulldozed</t>
+  </si>
+  <si>
+    <t>Stayed here for two weeks for work.    Terrible place - I will not stay here again.
+To begin with my flight arrived late at night.  I drove past this place 3 times looking for it in the dark but the light was not lit on the sign.  I told the desk clerk but it was never repaired.    
+Rooms are terrible.  I found trash in the drawers after checking in, It looked to me as if the sheets were never changed and I wrote a note to the maid to change the burned out bulb.  After returning later in the day the trash was still there and the bulb still burned out.  The condition of the facility is bad.  Cracks in the sidewalks, old discolored paint in the rooms, etc.   The only time I ever got new soaps or shampoo, etc when when I had to ask for it (and this is supposed to be a nice place!).  The air conditioner did not work the last two days I was there - told the front desk and they said they would check on it but I never heard from them again.   After staying there a week, I came back from the grocery store (there are kitchens in the room) with a hand full of bags and found my key no loger worked and had to go all the way up to the front desk where they told me they thought I...Stayed here for two weeks for work.    Terrible place - I will not stay here again.To begin with my flight arrived late at night.  I drove past this place 3 times looking for it in the dark but the light was not lit on the sign.  I told the desk clerk but it was never repaired.    Rooms are terrible.  I found trash in the drawers after checking in, It looked to me as if the sheets were never changed and I wrote a note to the maid to change the burned out bulb.  After returning later in the day the trash was still there and the bulb still burned out.  The condition of the facility is bad.  Cracks in the sidewalks, old discolored paint in the rooms, etc.   The only time I ever got new soaps or shampoo, etc when when I had to ask for it (and this is supposed to be a nice place!).  The air conditioner did not work the last two days I was there - told the front desk and they said they would check on it but I never heard from them again.   After staying there a week, I came back from the grocery store (there are kitchens in the room) with a hand full of bags and found my key no loger worked and had to go all the way up to the front desk where they told me they thought I had checked out - duh!   After checking out I found they charged me for a movie tht I did not watch!!!    And the worst of all is that a friend sent me a surprise birthday card and NOBODY at the front desk ever called to tell me to pick up my card!!!!   I didn't know about it until I got home - shame on you Marriott!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>Stayed here for two weeks for work.    Terrible place - I will not stay here again.
+To begin with my flight arrived late at night.  I drove past this place 3 times looking for it in the dark but the light was not lit on the sign.  I told the desk clerk but it was never repaired.    
+Rooms are terrible.  I found trash in the drawers after checking in, It looked to me as if the sheets were never changed and I wrote a note to the maid to change the burned out bulb.  After returning later in the day the trash was still there and the bulb still burned out.  The condition of the facility is bad.  Cracks in the sidewalks, old discolored paint in the rooms, etc.   The only time I ever got new soaps or shampoo, etc when when I had to ask for it (and this is supposed to be a nice place!).  The air conditioner did not work the last two days I was there - told the front desk and they said they would check on it but I never heard from them again.   After staying there a week, I came back from the grocery store (there are kitchens in the room) with a hand full of bags and found my key no loger worked and had to go all the way up to the front desk where they told me they thought I...Stayed here for two weeks for work.    Terrible place - I will not stay here again.To begin with my flight arrived late at night.  I drove past this place 3 times looking for it in the dark but the light was not lit on the sign.  I told the desk clerk but it was never repaired.    Rooms are terrible.  I found trash in the drawers after checking in, It looked to me as if the sheets were never changed and I wrote a note to the maid to change the burned out bulb.  After returning later in the day the trash was still there and the bulb still burned out.  The condition of the facility is bad.  Cracks in the sidewalks, old discolored paint in the rooms, etc.   The only time I ever got new soaps or shampoo, etc when when I had to ask for it (and this is supposed to be a nice place!).  The air conditioner did not work the last two days I was there - told the front desk and they said they would check on it but I never heard from them again.   After staying there a week, I came back from the grocery store (there are kitchens in the room) with a hand full of bags and found my key no loger worked and had to go all the way up to the front desk where they told me they thought I had checked out - duh!   After checking out I found they charged me for a movie tht I did not watch!!!    And the worst of all is that a friend sent me a surprise birthday card and NOBODY at the front desk ever called to tell me to pick up my card!!!!   I didn't know about it until I got home - shame on you Marriott!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r6521501-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>6521501</t>
+  </si>
+  <si>
+    <t>12/29/2006</t>
+  </si>
+  <si>
+    <t>Fantastic bargain</t>
+  </si>
+  <si>
+    <t>I got this hotel on Priceline for $50 and what a great bargain. The rooms are large, comfortable and clean. The daily breafast is free and appreciated (if a little boring). I stay here everytime I am in this area. You cannot beat the value and comfort.</t>
+  </si>
+  <si>
+    <t>November 2006</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r4588651-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>4588651</t>
+  </si>
+  <si>
+    <t>03/05/2006</t>
+  </si>
+  <si>
+    <t>Raves for the Rez Inn!</t>
+  </si>
+  <si>
+    <t>WOW! This was one of those great uber-bargains that keeps me addicted to PriceLine bidding!Upon check in, the front desk was completely accomodating with my choice of room type and location, even tho I was a Priceline customer. As it is a two story property with no elevator, at first I was a bit dismayed at having to pack my considerable amount of luggage up the stairs, but the desk called a worker to help me carry my load, and he whipped everything up the stairs for me muy pronto.My nice big room was quite airy and open, with lots of natural light and furnished quite charmingly, with loads of closet space and a fantastic cozy king bed, which are oddly enough kinda hard to come by at extended stay type hotels. I love having the full kitchen with all the utensils; there's a big ol Kroger's right down the block where I stocked up on groceries. Plus, they serve a free breakfast and evening "social", with light snacks and drinks, neither of which did I have the time to partake in.At $45 a night it was an AMAZING bargain!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2006</t>
+  </si>
+  <si>
+    <t>WOW! This was one of those great uber-bargains that keeps me addicted to PriceLine bidding!Upon check in, the front desk was completely accomodating with my choice of room type and location, even tho I was a Priceline customer. As it is a two story property with no elevator, at first I was a bit dismayed at having to pack my considerable amount of luggage up the stairs, but the desk called a worker to help me carry my load, and he whipped everything up the stairs for me muy pronto.My nice big room was quite airy and open, with lots of natural light and furnished quite charmingly, with loads of closet space and a fantastic cozy king bed, which are oddly enough kinda hard to come by at extended stay type hotels. I love having the full kitchen with all the utensils; there's a big ol Kroger's right down the block where I stocked up on groceries. Plus, they serve a free breakfast and evening "social", with light snacks and drinks, neither of which did I have the time to partake in.At $45 a night it was an AMAZING bargain!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108057-r4565701-Sonesta_ES_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>4565701</t>
+  </si>
+  <si>
+    <t>02/27/2006</t>
+  </si>
+  <si>
+    <t>A wonderful place!</t>
+  </si>
+  <si>
+    <t>My family and I enjoyed a wonderful week at the Residence Inn in Clearlake.  The staff was very agreeable and helpful -- there is a computer in the lobby that is accessible to guests (so we didn't have to bring our computer with us) -- the breakfast in the morning has everything from eggs and bacon to oatmeal and fruit -- we loved the pool -- in short, it was a wonderful home away from home.The only complaint I had (which management couldn't resolve) was the smell of the room when we first got there.  I'm not sure if someone had violated the "non smoking" policy or they hadn't cleaned it sufficiently after pets, but there was a definite odor that lingered for the first several days of our stay.I would definitely recommend this hotel, though, in spite of the musty odor -- everything else made this hotel worth it!!  (Not to mention that there was a Starbucks less than 500 feet away!)MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2005</t>
+  </si>
+  <si>
+    <t>My family and I enjoyed a wonderful week at the Residence Inn in Clearlake.  The staff was very agreeable and helpful -- there is a computer in the lobby that is accessible to guests (so we didn't have to bring our computer with us) -- the breakfast in the morning has everything from eggs and bacon to oatmeal and fruit -- we loved the pool -- in short, it was a wonderful home away from home.The only complaint I had (which management couldn't resolve) was the smell of the room when we first got there.  I'm not sure if someone had violated the "non smoking" policy or they hadn't cleaned it sufficiently after pets, but there was a definite odor that lingered for the first several days of our stay.I would definitely recommend this hotel, though, in spite of the musty odor -- everything else made this hotel worth it!!  (Not to mention that there was a Starbucks less than 500 feet away!)More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2288,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2320,5298 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>77</v>
+      </c>
+      <c r="X6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>77</v>
+      </c>
+      <c r="X7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>98</v>
+      </c>
+      <c r="X8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X9" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>115</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L12" t="s">
+        <v>127</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>128</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" t="s">
+        <v>133</v>
+      </c>
+      <c r="L13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>135</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>136</v>
+      </c>
+      <c r="X13" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>140</v>
+      </c>
+      <c r="J14" t="s">
+        <v>141</v>
+      </c>
+      <c r="K14" t="s">
+        <v>142</v>
+      </c>
+      <c r="L14" t="s">
+        <v>143</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14" t="s">
+        <v>128</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>145</v>
+      </c>
+      <c r="X14" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>149</v>
+      </c>
+      <c r="J15" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" t="s">
+        <v>151</v>
+      </c>
+      <c r="L15" t="s">
+        <v>152</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>153</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>145</v>
+      </c>
+      <c r="X15" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" t="s">
+        <v>158</v>
+      </c>
+      <c r="L16" t="s">
+        <v>159</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>160</v>
+      </c>
+      <c r="X16" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>164</v>
+      </c>
+      <c r="J17" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" t="s">
+        <v>166</v>
+      </c>
+      <c r="L17" t="s">
+        <v>167</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>168</v>
+      </c>
+      <c r="O17" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>145</v>
+      </c>
+      <c r="X17" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>171</v>
+      </c>
+      <c r="J18" t="s">
+        <v>172</v>
+      </c>
+      <c r="K18" t="s">
+        <v>173</v>
+      </c>
+      <c r="L18" t="s">
+        <v>174</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>175</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>145</v>
+      </c>
+      <c r="X18" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J19" t="s">
+        <v>179</v>
+      </c>
+      <c r="K19" t="s">
+        <v>180</v>
+      </c>
+      <c r="L19" t="s">
+        <v>181</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>168</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>182</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>183</v>
+      </c>
+      <c r="J20" t="s">
+        <v>184</v>
+      </c>
+      <c r="K20" t="s">
+        <v>185</v>
+      </c>
+      <c r="L20" t="s">
+        <v>186</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O20" t="s">
+        <v>128</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>188</v>
+      </c>
+      <c r="X20" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>191</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>192</v>
+      </c>
+      <c r="J21" t="s">
+        <v>193</v>
+      </c>
+      <c r="K21" t="s">
+        <v>194</v>
+      </c>
+      <c r="L21" t="s">
+        <v>195</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>196</v>
+      </c>
+      <c r="O21" t="s">
+        <v>197</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>198</v>
+      </c>
+      <c r="X21" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>201</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>202</v>
+      </c>
+      <c r="J22" t="s">
+        <v>203</v>
+      </c>
+      <c r="K22" t="s">
+        <v>204</v>
+      </c>
+      <c r="L22" t="s">
+        <v>205</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>187</v>
+      </c>
+      <c r="O22" t="s">
+        <v>76</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>206</v>
+      </c>
+      <c r="X22" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>210</v>
+      </c>
+      <c r="J23" t="s">
+        <v>211</v>
+      </c>
+      <c r="K23" t="s">
+        <v>212</v>
+      </c>
+      <c r="L23" t="s">
+        <v>213</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>175</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>214</v>
+      </c>
+      <c r="X23" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>217</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>218</v>
+      </c>
+      <c r="J24" t="s">
+        <v>219</v>
+      </c>
+      <c r="K24" t="s">
+        <v>220</v>
+      </c>
+      <c r="L24" t="s">
+        <v>221</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>175</v>
+      </c>
+      <c r="O24" t="s">
+        <v>76</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>222</v>
+      </c>
+      <c r="X24" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>225</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>226</v>
+      </c>
+      <c r="J25" t="s">
+        <v>227</v>
+      </c>
+      <c r="K25" t="s">
+        <v>228</v>
+      </c>
+      <c r="L25" t="s">
+        <v>229</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>230</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>222</v>
+      </c>
+      <c r="X25" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>232</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>233</v>
+      </c>
+      <c r="J26" t="s">
+        <v>234</v>
+      </c>
+      <c r="K26" t="s">
+        <v>235</v>
+      </c>
+      <c r="L26" t="s">
+        <v>236</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>222</v>
+      </c>
+      <c r="X26" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>238</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>239</v>
+      </c>
+      <c r="J27" t="s">
+        <v>240</v>
+      </c>
+      <c r="K27" t="s">
+        <v>241</v>
+      </c>
+      <c r="L27" t="s">
+        <v>242</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>243</v>
+      </c>
+      <c r="O27" t="s">
+        <v>76</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>222</v>
+      </c>
+      <c r="X27" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>245</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>246</v>
+      </c>
+      <c r="J28" t="s">
+        <v>247</v>
+      </c>
+      <c r="K28" t="s">
+        <v>248</v>
+      </c>
+      <c r="L28" t="s">
+        <v>249</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>250</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>222</v>
+      </c>
+      <c r="X28" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>252</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>253</v>
+      </c>
+      <c r="J29" t="s">
+        <v>254</v>
+      </c>
+      <c r="K29" t="s">
+        <v>255</v>
+      </c>
+      <c r="L29" t="s">
+        <v>256</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>243</v>
+      </c>
+      <c r="O29" t="s">
+        <v>76</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>222</v>
+      </c>
+      <c r="X29" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>258</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>259</v>
+      </c>
+      <c r="J30" t="s">
+        <v>260</v>
+      </c>
+      <c r="K30" t="s">
+        <v>261</v>
+      </c>
+      <c r="L30" t="s">
+        <v>262</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>250</v>
+      </c>
+      <c r="O30" t="s">
+        <v>128</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>198</v>
+      </c>
+      <c r="X30" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>264</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>265</v>
+      </c>
+      <c r="J31" t="s">
+        <v>266</v>
+      </c>
+      <c r="K31" t="s">
+        <v>267</v>
+      </c>
+      <c r="L31" t="s">
+        <v>268</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>250</v>
+      </c>
+      <c r="O31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>198</v>
+      </c>
+      <c r="X31" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>270</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>271</v>
+      </c>
+      <c r="J32" t="s">
+        <v>272</v>
+      </c>
+      <c r="K32" t="s">
+        <v>273</v>
+      </c>
+      <c r="L32" t="s">
+        <v>274</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>275</v>
+      </c>
+      <c r="O32" t="s">
+        <v>128</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>198</v>
+      </c>
+      <c r="X32" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>277</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>278</v>
+      </c>
+      <c r="J33" t="s">
+        <v>279</v>
+      </c>
+      <c r="K33" t="s">
+        <v>280</v>
+      </c>
+      <c r="L33" t="s">
+        <v>281</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>282</v>
+      </c>
+      <c r="O33" t="s">
+        <v>128</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>283</v>
+      </c>
+      <c r="X33" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>286</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>287</v>
+      </c>
+      <c r="J34" t="s">
+        <v>288</v>
+      </c>
+      <c r="K34" t="s">
+        <v>289</v>
+      </c>
+      <c r="L34" t="s">
+        <v>290</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>291</v>
+      </c>
+      <c r="O34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>283</v>
+      </c>
+      <c r="X34" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>293</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>294</v>
+      </c>
+      <c r="J35" t="s">
+        <v>295</v>
+      </c>
+      <c r="K35" t="s">
+        <v>296</v>
+      </c>
+      <c r="L35" t="s">
+        <v>297</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>298</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>198</v>
+      </c>
+      <c r="X35" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>300</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>301</v>
+      </c>
+      <c r="J36" t="s">
+        <v>302</v>
+      </c>
+      <c r="K36" t="s">
+        <v>303</v>
+      </c>
+      <c r="L36" t="s">
+        <v>304</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>298</v>
+      </c>
+      <c r="O36" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>198</v>
+      </c>
+      <c r="X36" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>306</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>307</v>
+      </c>
+      <c r="J37" t="s">
+        <v>308</v>
+      </c>
+      <c r="K37" t="s">
+        <v>309</v>
+      </c>
+      <c r="L37" t="s">
+        <v>310</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>298</v>
+      </c>
+      <c r="O37" t="s">
+        <v>128</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>311</v>
+      </c>
+      <c r="X37" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>314</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>315</v>
+      </c>
+      <c r="J38" t="s">
+        <v>316</v>
+      </c>
+      <c r="K38" t="s">
+        <v>317</v>
+      </c>
+      <c r="L38" t="s">
+        <v>318</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>320</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>321</v>
+      </c>
+      <c r="J39" t="s">
+        <v>322</v>
+      </c>
+      <c r="K39" t="s">
+        <v>323</v>
+      </c>
+      <c r="L39" t="s">
+        <v>324</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>325</v>
+      </c>
+      <c r="O39" t="s">
+        <v>52</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>326</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>327</v>
+      </c>
+      <c r="J40" t="s">
+        <v>328</v>
+      </c>
+      <c r="K40" t="s">
+        <v>329</v>
+      </c>
+      <c r="L40" t="s">
+        <v>330</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>331</v>
+      </c>
+      <c r="O40" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>333</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>334</v>
+      </c>
+      <c r="J41" t="s">
+        <v>335</v>
+      </c>
+      <c r="K41" t="s">
+        <v>336</v>
+      </c>
+      <c r="L41" t="s">
+        <v>337</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>325</v>
+      </c>
+      <c r="O41" t="s">
+        <v>128</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>338</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>339</v>
+      </c>
+      <c r="J42" t="s">
+        <v>340</v>
+      </c>
+      <c r="K42" t="s">
+        <v>341</v>
+      </c>
+      <c r="L42" t="s">
+        <v>342</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>343</v>
+      </c>
+      <c r="O42" t="s">
+        <v>128</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>344</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>345</v>
+      </c>
+      <c r="J43" t="s">
+        <v>346</v>
+      </c>
+      <c r="K43" t="s">
+        <v>347</v>
+      </c>
+      <c r="L43" t="s">
+        <v>348</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>343</v>
+      </c>
+      <c r="O43" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>350</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>351</v>
+      </c>
+      <c r="J44" t="s">
+        <v>352</v>
+      </c>
+      <c r="K44" t="s">
+        <v>353</v>
+      </c>
+      <c r="L44" t="s">
+        <v>354</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>355</v>
+      </c>
+      <c r="O44" t="s">
+        <v>52</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>357</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>358</v>
+      </c>
+      <c r="J45" t="s">
+        <v>359</v>
+      </c>
+      <c r="K45" t="s">
+        <v>360</v>
+      </c>
+      <c r="L45" t="s">
+        <v>361</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>362</v>
+      </c>
+      <c r="O45" t="s">
+        <v>52</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>363</v>
+      </c>
+      <c r="X45" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>366</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>367</v>
+      </c>
+      <c r="J46" t="s">
+        <v>368</v>
+      </c>
+      <c r="K46" t="s">
+        <v>369</v>
+      </c>
+      <c r="L46" t="s">
+        <v>370</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>363</v>
+      </c>
+      <c r="X46" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>372</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>373</v>
+      </c>
+      <c r="J47" t="s">
+        <v>374</v>
+      </c>
+      <c r="K47" t="s">
+        <v>375</v>
+      </c>
+      <c r="L47" t="s">
+        <v>376</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>377</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>378</v>
+      </c>
+      <c r="J48" t="s">
+        <v>379</v>
+      </c>
+      <c r="K48" t="s">
+        <v>380</v>
+      </c>
+      <c r="L48" t="s">
+        <v>381</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>382</v>
+      </c>
+      <c r="O48" t="s">
+        <v>52</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>384</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>385</v>
+      </c>
+      <c r="J49" t="s">
+        <v>386</v>
+      </c>
+      <c r="K49" t="s">
+        <v>387</v>
+      </c>
+      <c r="L49" t="s">
+        <v>388</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>389</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>390</v>
+      </c>
+      <c r="J50" t="s">
+        <v>391</v>
+      </c>
+      <c r="K50" t="s">
+        <v>392</v>
+      </c>
+      <c r="L50" t="s">
+        <v>393</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>394</v>
+      </c>
+      <c r="O50" t="s">
+        <v>76</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>395</v>
+      </c>
+      <c r="X50" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>398</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>399</v>
+      </c>
+      <c r="J51" t="s">
+        <v>400</v>
+      </c>
+      <c r="K51" t="s">
+        <v>401</v>
+      </c>
+      <c r="L51" t="s">
+        <v>402</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>403</v>
+      </c>
+      <c r="O51" t="s">
+        <v>52</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>395</v>
+      </c>
+      <c r="X51" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>405</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>406</v>
+      </c>
+      <c r="J52" t="s">
+        <v>407</v>
+      </c>
+      <c r="K52" t="s">
+        <v>408</v>
+      </c>
+      <c r="L52" t="s">
+        <v>409</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>403</v>
+      </c>
+      <c r="O52" t="s">
+        <v>128</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>410</v>
+      </c>
+      <c r="X52" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>413</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>414</v>
+      </c>
+      <c r="J53" t="s">
+        <v>415</v>
+      </c>
+      <c r="K53" t="s">
+        <v>416</v>
+      </c>
+      <c r="L53" t="s">
+        <v>417</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>418</v>
+      </c>
+      <c r="O53" t="s">
+        <v>52</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>419</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>420</v>
+      </c>
+      <c r="J54" t="s">
+        <v>421</v>
+      </c>
+      <c r="K54" t="s">
+        <v>422</v>
+      </c>
+      <c r="L54" t="s">
+        <v>423</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>418</v>
+      </c>
+      <c r="O54" t="s">
+        <v>76</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>424</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>425</v>
+      </c>
+      <c r="J55" t="s">
+        <v>426</v>
+      </c>
+      <c r="K55" t="s">
+        <v>427</v>
+      </c>
+      <c r="L55" t="s">
+        <v>428</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>429</v>
+      </c>
+      <c r="O55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>431</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>432</v>
+      </c>
+      <c r="J56" t="s">
+        <v>433</v>
+      </c>
+      <c r="K56" t="s">
+        <v>434</v>
+      </c>
+      <c r="L56" t="s">
+        <v>435</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>436</v>
+      </c>
+      <c r="O56" t="s">
+        <v>52</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>437</v>
+      </c>
+      <c r="X56" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>440</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>441</v>
+      </c>
+      <c r="J57" t="s">
+        <v>442</v>
+      </c>
+      <c r="K57" t="s">
+        <v>443</v>
+      </c>
+      <c r="L57" t="s">
+        <v>444</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>436</v>
+      </c>
+      <c r="O57" t="s">
+        <v>76</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>445</v>
+      </c>
+      <c r="X57" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>447</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>448</v>
+      </c>
+      <c r="J58" t="s">
+        <v>449</v>
+      </c>
+      <c r="K58" t="s">
+        <v>450</v>
+      </c>
+      <c r="L58" t="s">
+        <v>451</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>452</v>
+      </c>
+      <c r="O58" t="s">
+        <v>52</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>453</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>454</v>
+      </c>
+      <c r="J59" t="s">
+        <v>455</v>
+      </c>
+      <c r="K59" t="s">
+        <v>456</v>
+      </c>
+      <c r="L59" t="s">
+        <v>457</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>458</v>
+      </c>
+      <c r="O59" t="s">
+        <v>52</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>459</v>
+      </c>
+      <c r="X59" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>462</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>463</v>
+      </c>
+      <c r="J60" t="s">
+        <v>464</v>
+      </c>
+      <c r="K60" t="s">
+        <v>465</v>
+      </c>
+      <c r="L60" t="s">
+        <v>466</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>467</v>
+      </c>
+      <c r="O60" t="s">
+        <v>52</v>
+      </c>
+      <c r="P60" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>468</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>469</v>
+      </c>
+      <c r="J61" t="s">
+        <v>470</v>
+      </c>
+      <c r="K61" t="s">
+        <v>471</v>
+      </c>
+      <c r="L61" t="s">
+        <v>472</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>473</v>
+      </c>
+      <c r="O61" t="s">
+        <v>52</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>474</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>475</v>
+      </c>
+      <c r="J62" t="s">
+        <v>476</v>
+      </c>
+      <c r="K62" t="s">
+        <v>477</v>
+      </c>
+      <c r="L62" t="s">
+        <v>478</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>479</v>
+      </c>
+      <c r="O62" t="s">
+        <v>76</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>480</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>481</v>
+      </c>
+      <c r="J63" t="s">
+        <v>482</v>
+      </c>
+      <c r="K63" t="s">
+        <v>483</v>
+      </c>
+      <c r="L63" t="s">
+        <v>484</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>485</v>
+      </c>
+      <c r="X63" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>488</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>489</v>
+      </c>
+      <c r="J64" t="s">
+        <v>490</v>
+      </c>
+      <c r="K64" t="s">
+        <v>491</v>
+      </c>
+      <c r="L64" t="s">
+        <v>492</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>493</v>
+      </c>
+      <c r="O64" t="s">
+        <v>128</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="s"/>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>494</v>
+      </c>
+      <c r="X64" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>497</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>498</v>
+      </c>
+      <c r="J65" t="s">
+        <v>499</v>
+      </c>
+      <c r="K65" t="s">
+        <v>500</v>
+      </c>
+      <c r="L65" t="s">
+        <v>501</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>502</v>
+      </c>
+      <c r="O65" t="s">
+        <v>128</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>503</v>
+      </c>
+      <c r="X65" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>506</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>507</v>
+      </c>
+      <c r="J66" t="s">
+        <v>508</v>
+      </c>
+      <c r="K66" t="s">
+        <v>509</v>
+      </c>
+      <c r="L66" t="s">
+        <v>510</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>511</v>
+      </c>
+      <c r="O66" t="s">
+        <v>128</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>503</v>
+      </c>
+      <c r="X66" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>513</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>514</v>
+      </c>
+      <c r="J67" t="s">
+        <v>515</v>
+      </c>
+      <c r="K67" t="s">
+        <v>516</v>
+      </c>
+      <c r="L67" t="s">
+        <v>517</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>511</v>
+      </c>
+      <c r="O67" t="s">
+        <v>52</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>503</v>
+      </c>
+      <c r="X67" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>519</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>520</v>
+      </c>
+      <c r="J68" t="s">
+        <v>521</v>
+      </c>
+      <c r="K68" t="s">
+        <v>522</v>
+      </c>
+      <c r="L68" t="s">
+        <v>523</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>524</v>
+      </c>
+      <c r="O68" t="s">
+        <v>52</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>503</v>
+      </c>
+      <c r="X68" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>526</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>527</v>
+      </c>
+      <c r="J69" t="s">
+        <v>528</v>
+      </c>
+      <c r="K69" t="s">
+        <v>529</v>
+      </c>
+      <c r="L69" t="s">
+        <v>530</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>524</v>
+      </c>
+      <c r="O69" t="s">
+        <v>52</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>2</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>503</v>
+      </c>
+      <c r="X69" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>532</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>533</v>
+      </c>
+      <c r="J70" t="s">
+        <v>534</v>
+      </c>
+      <c r="K70" t="s">
+        <v>535</v>
+      </c>
+      <c r="L70" t="s">
+        <v>536</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>524</v>
+      </c>
+      <c r="O70" t="s">
+        <v>128</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>537</v>
+      </c>
+      <c r="X70" t="s">
+        <v>538</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>540</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>541</v>
+      </c>
+      <c r="J71" t="s">
+        <v>542</v>
+      </c>
+      <c r="K71" t="s">
+        <v>360</v>
+      </c>
+      <c r="L71" t="s">
+        <v>543</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>544</v>
+      </c>
+      <c r="O71" t="s">
+        <v>128</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>545</v>
+      </c>
+      <c r="X71" t="s">
+        <v>546</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>548</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>549</v>
+      </c>
+      <c r="J72" t="s">
+        <v>550</v>
+      </c>
+      <c r="K72" t="s">
+        <v>551</v>
+      </c>
+      <c r="L72" t="s">
+        <v>552</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>502</v>
+      </c>
+      <c r="O72" t="s">
+        <v>128</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>554</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>555</v>
+      </c>
+      <c r="J73" t="s">
+        <v>556</v>
+      </c>
+      <c r="K73" t="s">
+        <v>557</v>
+      </c>
+      <c r="L73" t="s">
+        <v>558</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>559</v>
+      </c>
+      <c r="O73" t="s">
+        <v>128</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>560</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>561</v>
+      </c>
+      <c r="J74" t="s">
+        <v>562</v>
+      </c>
+      <c r="K74" t="s">
+        <v>563</v>
+      </c>
+      <c r="L74" t="s">
+        <v>564</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>565</v>
+      </c>
+      <c r="O74" t="s">
+        <v>52</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>566</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>567</v>
+      </c>
+      <c r="J75" t="s">
+        <v>568</v>
+      </c>
+      <c r="K75" t="s">
+        <v>569</v>
+      </c>
+      <c r="L75" t="s">
+        <v>570</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>571</v>
+      </c>
+      <c r="O75" t="s">
+        <v>76</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>573</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>574</v>
+      </c>
+      <c r="J76" t="s">
+        <v>575</v>
+      </c>
+      <c r="K76" t="s">
+        <v>576</v>
+      </c>
+      <c r="L76" t="s">
+        <v>577</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s">
+        <v>578</v>
+      </c>
+      <c r="O76" t="s">
+        <v>76</v>
+      </c>
+      <c r="P76" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>2</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>1</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>579</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>580</v>
+      </c>
+      <c r="J77" t="s">
+        <v>581</v>
+      </c>
+      <c r="K77" t="s">
+        <v>582</v>
+      </c>
+      <c r="L77" t="s">
+        <v>583</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>584</v>
+      </c>
+      <c r="O77" t="s">
+        <v>76</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>585</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>586</v>
+      </c>
+      <c r="J78" t="s">
+        <v>587</v>
+      </c>
+      <c r="K78" t="s">
+        <v>588</v>
+      </c>
+      <c r="L78" t="s">
+        <v>589</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="s">
+        <v>590</v>
+      </c>
+      <c r="O78" t="s">
+        <v>128</v>
+      </c>
+      <c r="P78" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>592</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>593</v>
+      </c>
+      <c r="J79" t="s">
+        <v>594</v>
+      </c>
+      <c r="K79" t="s">
+        <v>595</v>
+      </c>
+      <c r="L79" t="s">
+        <v>596</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>597</v>
+      </c>
+      <c r="O79" t="s">
+        <v>128</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>599</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>600</v>
+      </c>
+      <c r="J80" t="s">
+        <v>601</v>
+      </c>
+      <c r="K80" t="s">
+        <v>602</v>
+      </c>
+      <c r="L80" t="s">
+        <v>603</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>604</v>
+      </c>
+      <c r="O80" t="s">
+        <v>76</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>605</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>606</v>
+      </c>
+      <c r="J81" t="s">
+        <v>607</v>
+      </c>
+      <c r="K81" t="s">
+        <v>608</v>
+      </c>
+      <c r="L81" t="s">
+        <v>609</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>610</v>
+      </c>
+      <c r="O81" t="s">
+        <v>128</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="s"/>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>28472</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>612</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>613</v>
+      </c>
+      <c r="J82" t="s">
+        <v>614</v>
+      </c>
+      <c r="K82" t="s">
+        <v>615</v>
+      </c>
+      <c r="L82" t="s">
+        <v>616</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>617</v>
+      </c>
+      <c r="O82" t="s">
+        <v>128</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="s"/>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>618</v>
       </c>
     </row>
   </sheetData>
